--- a/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/satisfaction/run_no=0.xlsx
+++ b/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/satisfaction/run_no=0.xlsx
@@ -709,163 +709,163 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>462</v>
+      </c>
+      <c r="C2" t="n">
+        <v>413</v>
+      </c>
+      <c r="D2" t="n">
+        <v>472</v>
+      </c>
+      <c r="E2" t="n">
+        <v>425</v>
+      </c>
+      <c r="F2" t="n">
+        <v>423</v>
+      </c>
+      <c r="G2" t="n">
+        <v>414</v>
+      </c>
+      <c r="H2" t="n">
+        <v>457</v>
+      </c>
+      <c r="I2" t="n">
         <v>170</v>
       </c>
-      <c r="C2" t="n">
-        <v>179</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E2" t="n">
-        <v>180</v>
-      </c>
-      <c r="F2" t="n">
-        <v>181</v>
-      </c>
-      <c r="G2" t="n">
-        <v>38</v>
-      </c>
-      <c r="H2" t="n">
-        <v>162</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191</v>
-      </c>
       <c r="J2" t="n">
-        <v>157</v>
+        <v>459</v>
       </c>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="L2" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M2" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>168</v>
+        <v>462</v>
       </c>
       <c r="O2" t="n">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="P2" t="n">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="Q2" t="n">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="R2" t="n">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="S2" t="n">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="T2" t="n">
-        <v>33</v>
+        <v>365</v>
       </c>
       <c r="U2" t="n">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="V2" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="W2" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="X2" t="n">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>488</v>
       </c>
       <c r="Z2" t="n">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="AA2" t="n">
-        <v>159</v>
+        <v>418</v>
       </c>
       <c r="AB2" t="n">
-        <v>174</v>
+        <v>413</v>
       </c>
       <c r="AC2" t="n">
-        <v>166</v>
+        <v>407</v>
       </c>
       <c r="AD2" t="n">
-        <v>152</v>
+        <v>471</v>
       </c>
       <c r="AE2" t="n">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="AF2" t="n">
-        <v>168</v>
+        <v>452</v>
       </c>
       <c r="AG2" t="n">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="AH2" t="n">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="AI2" t="n">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="AJ2" t="n">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="AK2" t="n">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="AL2" t="n">
-        <v>163</v>
+        <v>381</v>
       </c>
       <c r="AM2" t="n">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="AN2" t="n">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="AO2" t="n">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="AP2" t="n">
-        <v>157</v>
+        <v>409</v>
       </c>
       <c r="AQ2" t="n">
-        <v>168</v>
+        <v>400</v>
       </c>
       <c r="AR2" t="n">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="AS2" t="n">
-        <v>171</v>
+        <v>368</v>
       </c>
       <c r="AT2" t="n">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="AU2" t="n">
-        <v>162</v>
+        <v>438</v>
       </c>
       <c r="AV2" t="n">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="AW2" t="n">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="AX2" t="n">
-        <v>162</v>
+        <v>462</v>
       </c>
       <c r="AY2" t="n">
-        <v>164</v>
+        <v>441</v>
       </c>
       <c r="AZ2" t="n">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>7193</v>
+        <v>18436</v>
       </c>
       <c r="BB2" t="n">
-        <v>191</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3">
@@ -875,163 +875,163 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="C3" t="n">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="E3" t="n">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="F3" t="n">
-        <v>281</v>
+        <v>376</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H3" t="n">
-        <v>264</v>
+        <v>428</v>
       </c>
       <c r="I3" t="n">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="J3" t="n">
-        <v>258</v>
+        <v>408</v>
       </c>
       <c r="K3" t="n">
-        <v>27</v>
+        <v>454</v>
       </c>
       <c r="L3" t="n">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="M3" t="n">
-        <v>28</v>
+        <v>404</v>
       </c>
       <c r="N3" t="n">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="O3" t="n">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="P3" t="n">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="Q3" t="n">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="R3" t="n">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="S3" t="n">
-        <v>246</v>
+        <v>437</v>
       </c>
       <c r="T3" t="n">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="U3" t="n">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="V3" t="n">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="W3" t="n">
-        <v>264</v>
+        <v>382</v>
       </c>
       <c r="X3" t="n">
-        <v>275</v>
+        <v>463</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>488</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="AA3" t="n">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="AB3" t="n">
-        <v>171</v>
+        <v>535</v>
       </c>
       <c r="AC3" t="n">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="AD3" t="n">
-        <v>152</v>
+        <v>599</v>
       </c>
       <c r="AE3" t="n">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="AF3" t="n">
-        <v>164</v>
+        <v>593</v>
       </c>
       <c r="AG3" t="n">
-        <v>167</v>
+        <v>571</v>
       </c>
       <c r="AH3" t="n">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="AI3" t="n">
-        <v>171</v>
+        <v>512</v>
       </c>
       <c r="AJ3" t="n">
-        <v>182</v>
+        <v>583</v>
       </c>
       <c r="AK3" t="n">
-        <v>188</v>
+        <v>522</v>
       </c>
       <c r="AL3" t="n">
-        <v>162</v>
+        <v>548</v>
       </c>
       <c r="AM3" t="n">
-        <v>153</v>
+        <v>573</v>
       </c>
       <c r="AN3" t="n">
-        <v>175</v>
+        <v>592</v>
       </c>
       <c r="AO3" t="n">
-        <v>159</v>
+        <v>634</v>
       </c>
       <c r="AP3" t="n">
-        <v>162</v>
+        <v>547</v>
       </c>
       <c r="AQ3" t="n">
-        <v>168</v>
+        <v>533</v>
       </c>
       <c r="AR3" t="n">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="AS3" t="n">
-        <v>174</v>
+        <v>520</v>
       </c>
       <c r="AT3" t="n">
-        <v>173</v>
+        <v>530</v>
       </c>
       <c r="AU3" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AV3" t="n">
-        <v>181</v>
+        <v>588</v>
       </c>
       <c r="AW3" t="n">
-        <v>172</v>
+        <v>543</v>
       </c>
       <c r="AX3" t="n">
-        <v>165</v>
+        <v>600</v>
       </c>
       <c r="AY3" t="n">
-        <v>165</v>
+        <v>588</v>
       </c>
       <c r="AZ3" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="BA3" t="n">
-        <v>8774</v>
+        <v>24015</v>
       </c>
       <c r="BB3" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4">
@@ -1041,163 +1041,163 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="C4" t="n">
-        <v>179</v>
+        <v>364</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>422</v>
       </c>
       <c r="E4" t="n">
-        <v>180</v>
+        <v>387</v>
       </c>
       <c r="F4" t="n">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H4" t="n">
-        <v>162</v>
+        <v>428</v>
       </c>
       <c r="I4" t="n">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="J4" t="n">
-        <v>157</v>
+        <v>408</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>454</v>
       </c>
       <c r="L4" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="M4" t="n">
-        <v>29</v>
+        <v>404</v>
       </c>
       <c r="N4" t="n">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="O4" t="n">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="P4" t="n">
-        <v>176</v>
+        <v>475</v>
       </c>
       <c r="Q4" t="n">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="R4" t="n">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="S4" t="n">
-        <v>151</v>
+        <v>437</v>
       </c>
       <c r="T4" t="n">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="U4" t="n">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="V4" t="n">
-        <v>178</v>
+        <v>428</v>
       </c>
       <c r="W4" t="n">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="X4" t="n">
-        <v>177</v>
+        <v>463</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>488</v>
       </c>
       <c r="Z4" t="n">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="AA4" t="n">
-        <v>159</v>
+        <v>553</v>
       </c>
       <c r="AB4" t="n">
-        <v>174</v>
+        <v>535</v>
       </c>
       <c r="AC4" t="n">
-        <v>166</v>
+        <v>566</v>
       </c>
       <c r="AD4" t="n">
-        <v>152</v>
+        <v>599</v>
       </c>
       <c r="AE4" t="n">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="AF4" t="n">
-        <v>168</v>
+        <v>593</v>
       </c>
       <c r="AG4" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AH4" t="n">
-        <v>169</v>
+        <v>573</v>
       </c>
       <c r="AI4" t="n">
-        <v>171</v>
+        <v>512</v>
       </c>
       <c r="AJ4" t="n">
-        <v>181</v>
+        <v>583</v>
       </c>
       <c r="AK4" t="n">
-        <v>180</v>
+        <v>522</v>
       </c>
       <c r="AL4" t="n">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="AM4" t="n">
-        <v>155</v>
+        <v>573</v>
       </c>
       <c r="AN4" t="n">
-        <v>178</v>
+        <v>592</v>
       </c>
       <c r="AO4" t="n">
-        <v>163</v>
+        <v>634</v>
       </c>
       <c r="AP4" t="n">
-        <v>157</v>
+        <v>547</v>
       </c>
       <c r="AQ4" t="n">
-        <v>168</v>
+        <v>533</v>
       </c>
       <c r="AR4" t="n">
-        <v>149</v>
+        <v>553</v>
       </c>
       <c r="AS4" t="n">
-        <v>171</v>
+        <v>520</v>
       </c>
       <c r="AT4" t="n">
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="AU4" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AV4" t="n">
-        <v>181</v>
+        <v>588</v>
       </c>
       <c r="AW4" t="n">
-        <v>181</v>
+        <v>543</v>
       </c>
       <c r="AX4" t="n">
-        <v>162</v>
+        <v>600</v>
       </c>
       <c r="AY4" t="n">
-        <v>164</v>
+        <v>588</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="BA4" t="n">
-        <v>7193</v>
+        <v>24015</v>
       </c>
       <c r="BB4" t="n">
-        <v>191</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5">
@@ -1207,163 +1207,163 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170</v>
+        <v>533</v>
       </c>
       <c r="C5" t="n">
-        <v>179</v>
+        <v>449</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>533</v>
       </c>
       <c r="E5" t="n">
-        <v>180</v>
+        <v>479</v>
       </c>
       <c r="F5" t="n">
-        <v>181</v>
+        <v>464</v>
       </c>
       <c r="G5" t="n">
-        <v>38</v>
+        <v>437</v>
       </c>
       <c r="H5" t="n">
-        <v>162</v>
+        <v>535</v>
       </c>
       <c r="I5" t="n">
-        <v>191</v>
+        <v>468</v>
       </c>
       <c r="J5" t="n">
-        <v>157</v>
+        <v>496</v>
       </c>
       <c r="K5" t="n">
-        <v>30</v>
+        <v>560</v>
       </c>
       <c r="L5" t="n">
-        <v>153</v>
+        <v>448</v>
       </c>
       <c r="M5" t="n">
-        <v>29</v>
+        <v>508</v>
       </c>
       <c r="N5" t="n">
-        <v>168</v>
+        <v>453</v>
       </c>
       <c r="O5" t="n">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="P5" t="n">
-        <v>176</v>
+        <v>595</v>
       </c>
       <c r="Q5" t="n">
-        <v>184</v>
+        <v>458</v>
       </c>
       <c r="R5" t="n">
-        <v>23</v>
+        <v>414</v>
       </c>
       <c r="S5" t="n">
-        <v>151</v>
+        <v>549</v>
       </c>
       <c r="T5" t="n">
-        <v>33</v>
+        <v>423</v>
       </c>
       <c r="U5" t="n">
-        <v>33</v>
+        <v>497</v>
       </c>
       <c r="V5" t="n">
-        <v>178</v>
+        <v>512</v>
       </c>
       <c r="W5" t="n">
-        <v>162</v>
+        <v>467</v>
       </c>
       <c r="X5" t="n">
-        <v>177</v>
+        <v>578</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="Z5" t="n">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="AA5" t="n">
-        <v>159</v>
+        <v>547</v>
       </c>
       <c r="AB5" t="n">
-        <v>174</v>
+        <v>469</v>
       </c>
       <c r="AC5" t="n">
-        <v>166</v>
+        <v>523</v>
       </c>
       <c r="AD5" t="n">
-        <v>152</v>
+        <v>553</v>
       </c>
       <c r="AE5" t="n">
-        <v>168</v>
+        <v>459</v>
       </c>
       <c r="AF5" t="n">
-        <v>168</v>
+        <v>531</v>
       </c>
       <c r="AG5" t="n">
-        <v>162</v>
+        <v>462</v>
       </c>
       <c r="AH5" t="n">
-        <v>169</v>
+        <v>542</v>
       </c>
       <c r="AI5" t="n">
-        <v>171</v>
+        <v>494</v>
       </c>
       <c r="AJ5" t="n">
-        <v>181</v>
+        <v>538</v>
       </c>
       <c r="AK5" t="n">
-        <v>180</v>
+        <v>494</v>
       </c>
       <c r="AL5" t="n">
-        <v>163</v>
+        <v>493</v>
       </c>
       <c r="AM5" t="n">
-        <v>155</v>
+        <v>520</v>
       </c>
       <c r="AN5" t="n">
-        <v>178</v>
+        <v>558</v>
       </c>
       <c r="AO5" t="n">
-        <v>163</v>
+        <v>621</v>
       </c>
       <c r="AP5" t="n">
-        <v>157</v>
+        <v>514</v>
       </c>
       <c r="AQ5" t="n">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="AR5" t="n">
-        <v>149</v>
+        <v>471</v>
       </c>
       <c r="AS5" t="n">
-        <v>171</v>
+        <v>431</v>
       </c>
       <c r="AT5" t="n">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="AU5" t="n">
-        <v>162</v>
+        <v>477</v>
       </c>
       <c r="AV5" t="n">
-        <v>181</v>
+        <v>548</v>
       </c>
       <c r="AW5" t="n">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="AX5" t="n">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="AY5" t="n">
-        <v>164</v>
+        <v>518</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>414</v>
       </c>
       <c r="BA5" t="n">
-        <v>7193</v>
+        <v>25024</v>
       </c>
       <c r="BB5" t="n">
-        <v>191</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6">
@@ -1373,163 +1373,163 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>462</v>
+      </c>
+      <c r="C6" t="n">
+        <v>413</v>
+      </c>
+      <c r="D6" t="n">
+        <v>472</v>
+      </c>
+      <c r="E6" t="n">
+        <v>425</v>
+      </c>
+      <c r="F6" t="n">
+        <v>423</v>
+      </c>
+      <c r="G6" t="n">
+        <v>414</v>
+      </c>
+      <c r="H6" t="n">
+        <v>457</v>
+      </c>
+      <c r="I6" t="n">
         <v>170</v>
       </c>
-      <c r="C6" t="n">
-        <v>179</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27</v>
-      </c>
-      <c r="E6" t="n">
-        <v>180</v>
-      </c>
-      <c r="F6" t="n">
-        <v>181</v>
-      </c>
-      <c r="G6" t="n">
-        <v>38</v>
-      </c>
-      <c r="H6" t="n">
-        <v>162</v>
-      </c>
-      <c r="I6" t="n">
-        <v>191</v>
-      </c>
       <c r="J6" t="n">
-        <v>157</v>
+        <v>459</v>
       </c>
       <c r="K6" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="L6" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M6" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>168</v>
+        <v>462</v>
       </c>
       <c r="O6" t="n">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="P6" t="n">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="Q6" t="n">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="R6" t="n">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="S6" t="n">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="T6" t="n">
-        <v>33</v>
+        <v>365</v>
       </c>
       <c r="U6" t="n">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="V6" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="W6" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="X6" t="n">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>488</v>
       </c>
       <c r="Z6" t="n">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="AA6" t="n">
-        <v>159</v>
+        <v>418</v>
       </c>
       <c r="AB6" t="n">
-        <v>174</v>
+        <v>413</v>
       </c>
       <c r="AC6" t="n">
-        <v>166</v>
+        <v>407</v>
       </c>
       <c r="AD6" t="n">
-        <v>152</v>
+        <v>471</v>
       </c>
       <c r="AE6" t="n">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="AF6" t="n">
-        <v>168</v>
+        <v>452</v>
       </c>
       <c r="AG6" t="n">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="AH6" t="n">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="AI6" t="n">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="AJ6" t="n">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="AK6" t="n">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="AL6" t="n">
-        <v>163</v>
+        <v>381</v>
       </c>
       <c r="AM6" t="n">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="AN6" t="n">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="AO6" t="n">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="AP6" t="n">
-        <v>157</v>
+        <v>409</v>
       </c>
       <c r="AQ6" t="n">
-        <v>168</v>
+        <v>400</v>
       </c>
       <c r="AR6" t="n">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="AS6" t="n">
-        <v>171</v>
+        <v>368</v>
       </c>
       <c r="AT6" t="n">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="AU6" t="n">
-        <v>162</v>
+        <v>438</v>
       </c>
       <c r="AV6" t="n">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="AW6" t="n">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="AX6" t="n">
-        <v>162</v>
+        <v>462</v>
       </c>
       <c r="AY6" t="n">
-        <v>164</v>
+        <v>441</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>7193</v>
+        <v>18436</v>
       </c>
       <c r="BB6" t="n">
-        <v>191</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7">
@@ -1539,163 +1539,163 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="C7" t="n">
-        <v>179</v>
+        <v>364</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>422</v>
       </c>
       <c r="E7" t="n">
-        <v>180</v>
+        <v>387</v>
       </c>
       <c r="F7" t="n">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H7" t="n">
-        <v>162</v>
+        <v>428</v>
       </c>
       <c r="I7" t="n">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="J7" t="n">
-        <v>157</v>
+        <v>408</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>454</v>
       </c>
       <c r="L7" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="M7" t="n">
-        <v>29</v>
+        <v>404</v>
       </c>
       <c r="N7" t="n">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="O7" t="n">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="P7" t="n">
-        <v>176</v>
+        <v>475</v>
       </c>
       <c r="Q7" t="n">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="R7" t="n">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="S7" t="n">
-        <v>151</v>
+        <v>437</v>
       </c>
       <c r="T7" t="n">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="U7" t="n">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="V7" t="n">
-        <v>178</v>
+        <v>428</v>
       </c>
       <c r="W7" t="n">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="X7" t="n">
-        <v>177</v>
+        <v>463</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>488</v>
       </c>
       <c r="Z7" t="n">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="AA7" t="n">
-        <v>159</v>
+        <v>553</v>
       </c>
       <c r="AB7" t="n">
-        <v>174</v>
+        <v>535</v>
       </c>
       <c r="AC7" t="n">
-        <v>166</v>
+        <v>566</v>
       </c>
       <c r="AD7" t="n">
-        <v>152</v>
+        <v>599</v>
       </c>
       <c r="AE7" t="n">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="AF7" t="n">
-        <v>168</v>
+        <v>593</v>
       </c>
       <c r="AG7" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AH7" t="n">
-        <v>169</v>
+        <v>573</v>
       </c>
       <c r="AI7" t="n">
-        <v>171</v>
+        <v>512</v>
       </c>
       <c r="AJ7" t="n">
-        <v>181</v>
+        <v>583</v>
       </c>
       <c r="AK7" t="n">
-        <v>180</v>
+        <v>522</v>
       </c>
       <c r="AL7" t="n">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="AM7" t="n">
-        <v>155</v>
+        <v>573</v>
       </c>
       <c r="AN7" t="n">
-        <v>178</v>
+        <v>592</v>
       </c>
       <c r="AO7" t="n">
-        <v>163</v>
+        <v>634</v>
       </c>
       <c r="AP7" t="n">
-        <v>157</v>
+        <v>547</v>
       </c>
       <c r="AQ7" t="n">
-        <v>168</v>
+        <v>533</v>
       </c>
       <c r="AR7" t="n">
-        <v>149</v>
+        <v>553</v>
       </c>
       <c r="AS7" t="n">
-        <v>171</v>
+        <v>520</v>
       </c>
       <c r="AT7" t="n">
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="AU7" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AV7" t="n">
-        <v>181</v>
+        <v>588</v>
       </c>
       <c r="AW7" t="n">
-        <v>181</v>
+        <v>543</v>
       </c>
       <c r="AX7" t="n">
-        <v>162</v>
+        <v>600</v>
       </c>
       <c r="AY7" t="n">
-        <v>164</v>
+        <v>588</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="BA7" t="n">
-        <v>7193</v>
+        <v>24015</v>
       </c>
       <c r="BB7" t="n">
-        <v>191</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8">
@@ -1705,163 +1705,163 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170</v>
+        <v>533</v>
       </c>
       <c r="C8" t="n">
-        <v>179</v>
+        <v>449</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>533</v>
       </c>
       <c r="E8" t="n">
-        <v>180</v>
+        <v>479</v>
       </c>
       <c r="F8" t="n">
-        <v>181</v>
+        <v>464</v>
       </c>
       <c r="G8" t="n">
-        <v>38</v>
+        <v>437</v>
       </c>
       <c r="H8" t="n">
-        <v>162</v>
+        <v>535</v>
       </c>
       <c r="I8" t="n">
-        <v>191</v>
+        <v>468</v>
       </c>
       <c r="J8" t="n">
-        <v>157</v>
+        <v>496</v>
       </c>
       <c r="K8" t="n">
-        <v>30</v>
+        <v>560</v>
       </c>
       <c r="L8" t="n">
-        <v>153</v>
+        <v>448</v>
       </c>
       <c r="M8" t="n">
-        <v>29</v>
+        <v>508</v>
       </c>
       <c r="N8" t="n">
-        <v>168</v>
+        <v>453</v>
       </c>
       <c r="O8" t="n">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="P8" t="n">
-        <v>176</v>
+        <v>595</v>
       </c>
       <c r="Q8" t="n">
-        <v>184</v>
+        <v>458</v>
       </c>
       <c r="R8" t="n">
-        <v>23</v>
+        <v>414</v>
       </c>
       <c r="S8" t="n">
-        <v>151</v>
+        <v>549</v>
       </c>
       <c r="T8" t="n">
-        <v>33</v>
+        <v>423</v>
       </c>
       <c r="U8" t="n">
-        <v>33</v>
+        <v>497</v>
       </c>
       <c r="V8" t="n">
-        <v>178</v>
+        <v>512</v>
       </c>
       <c r="W8" t="n">
-        <v>162</v>
+        <v>467</v>
       </c>
       <c r="X8" t="n">
-        <v>177</v>
+        <v>578</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="Z8" t="n">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="AA8" t="n">
-        <v>159</v>
+        <v>547</v>
       </c>
       <c r="AB8" t="n">
-        <v>174</v>
+        <v>469</v>
       </c>
       <c r="AC8" t="n">
-        <v>166</v>
+        <v>523</v>
       </c>
       <c r="AD8" t="n">
-        <v>152</v>
+        <v>553</v>
       </c>
       <c r="AE8" t="n">
-        <v>168</v>
+        <v>459</v>
       </c>
       <c r="AF8" t="n">
-        <v>168</v>
+        <v>531</v>
       </c>
       <c r="AG8" t="n">
-        <v>162</v>
+        <v>462</v>
       </c>
       <c r="AH8" t="n">
-        <v>169</v>
+        <v>542</v>
       </c>
       <c r="AI8" t="n">
-        <v>171</v>
+        <v>494</v>
       </c>
       <c r="AJ8" t="n">
-        <v>181</v>
+        <v>538</v>
       </c>
       <c r="AK8" t="n">
-        <v>180</v>
+        <v>494</v>
       </c>
       <c r="AL8" t="n">
-        <v>163</v>
+        <v>493</v>
       </c>
       <c r="AM8" t="n">
-        <v>155</v>
+        <v>520</v>
       </c>
       <c r="AN8" t="n">
-        <v>178</v>
+        <v>558</v>
       </c>
       <c r="AO8" t="n">
-        <v>163</v>
+        <v>621</v>
       </c>
       <c r="AP8" t="n">
-        <v>157</v>
+        <v>514</v>
       </c>
       <c r="AQ8" t="n">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="AR8" t="n">
-        <v>149</v>
+        <v>471</v>
       </c>
       <c r="AS8" t="n">
-        <v>171</v>
+        <v>431</v>
       </c>
       <c r="AT8" t="n">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="AU8" t="n">
-        <v>162</v>
+        <v>477</v>
       </c>
       <c r="AV8" t="n">
-        <v>181</v>
+        <v>548</v>
       </c>
       <c r="AW8" t="n">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="AX8" t="n">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="AY8" t="n">
-        <v>164</v>
+        <v>518</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>414</v>
       </c>
       <c r="BA8" t="n">
-        <v>7193</v>
+        <v>25024</v>
       </c>
       <c r="BB8" t="n">
-        <v>191</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9">
@@ -1871,163 +1871,163 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>462</v>
+      </c>
+      <c r="C9" t="n">
+        <v>413</v>
+      </c>
+      <c r="D9" t="n">
+        <v>472</v>
+      </c>
+      <c r="E9" t="n">
+        <v>425</v>
+      </c>
+      <c r="F9" t="n">
+        <v>423</v>
+      </c>
+      <c r="G9" t="n">
+        <v>414</v>
+      </c>
+      <c r="H9" t="n">
+        <v>457</v>
+      </c>
+      <c r="I9" t="n">
         <v>170</v>
       </c>
-      <c r="C9" t="n">
-        <v>179</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E9" t="n">
-        <v>180</v>
-      </c>
-      <c r="F9" t="n">
-        <v>181</v>
-      </c>
-      <c r="G9" t="n">
-        <v>38</v>
-      </c>
-      <c r="H9" t="n">
-        <v>162</v>
-      </c>
-      <c r="I9" t="n">
-        <v>191</v>
-      </c>
       <c r="J9" t="n">
-        <v>157</v>
+        <v>459</v>
       </c>
       <c r="K9" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="L9" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M9" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>168</v>
+        <v>462</v>
       </c>
       <c r="O9" t="n">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="P9" t="n">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="Q9" t="n">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="R9" t="n">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="S9" t="n">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="T9" t="n">
-        <v>33</v>
+        <v>365</v>
       </c>
       <c r="U9" t="n">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="V9" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="W9" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="X9" t="n">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>488</v>
       </c>
       <c r="Z9" t="n">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="AA9" t="n">
-        <v>159</v>
+        <v>418</v>
       </c>
       <c r="AB9" t="n">
-        <v>174</v>
+        <v>413</v>
       </c>
       <c r="AC9" t="n">
-        <v>166</v>
+        <v>407</v>
       </c>
       <c r="AD9" t="n">
-        <v>152</v>
+        <v>471</v>
       </c>
       <c r="AE9" t="n">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="AF9" t="n">
-        <v>168</v>
+        <v>452</v>
       </c>
       <c r="AG9" t="n">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="AH9" t="n">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="AI9" t="n">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="AJ9" t="n">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="AK9" t="n">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="AL9" t="n">
-        <v>163</v>
+        <v>381</v>
       </c>
       <c r="AM9" t="n">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="AN9" t="n">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="AO9" t="n">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="AP9" t="n">
-        <v>157</v>
+        <v>409</v>
       </c>
       <c r="AQ9" t="n">
-        <v>168</v>
+        <v>400</v>
       </c>
       <c r="AR9" t="n">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="AS9" t="n">
-        <v>171</v>
+        <v>368</v>
       </c>
       <c r="AT9" t="n">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="AU9" t="n">
-        <v>162</v>
+        <v>438</v>
       </c>
       <c r="AV9" t="n">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="AW9" t="n">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="AX9" t="n">
-        <v>162</v>
+        <v>462</v>
       </c>
       <c r="AY9" t="n">
-        <v>164</v>
+        <v>441</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="n">
-        <v>7193</v>
+        <v>18436</v>
       </c>
       <c r="BB9" t="n">
-        <v>191</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
@@ -2037,163 +2037,163 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170</v>
+        <v>421</v>
       </c>
       <c r="C10" t="n">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>421</v>
       </c>
       <c r="E10" t="n">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="F10" t="n">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="G10" t="n">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="H10" t="n">
-        <v>162</v>
+        <v>427</v>
       </c>
       <c r="I10" t="n">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="J10" t="n">
-        <v>157</v>
+        <v>366</v>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>392</v>
       </c>
       <c r="L10" t="n">
-        <v>153</v>
+        <v>279</v>
       </c>
       <c r="M10" t="n">
-        <v>29</v>
+        <v>323</v>
       </c>
       <c r="N10" t="n">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c r="O10" t="n">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="P10" t="n">
-        <v>176</v>
+        <v>409</v>
       </c>
       <c r="Q10" t="n">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="R10" t="n">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="S10" t="n">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="T10" t="n">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="U10" t="n">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="V10" t="n">
-        <v>178</v>
+        <v>314</v>
       </c>
       <c r="W10" t="n">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="X10" t="n">
-        <v>177</v>
+        <v>439</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="Z10" t="n">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="AA10" t="n">
-        <v>159</v>
+        <v>336</v>
       </c>
       <c r="AB10" t="n">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="AC10" t="n">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="AD10" t="n">
-        <v>152</v>
+        <v>330</v>
       </c>
       <c r="AE10" t="n">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="AF10" t="n">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="AG10" t="n">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="AH10" t="n">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="AI10" t="n">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="AK10" t="n">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="AL10" t="n">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="AM10" t="n">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="AN10" t="n">
-        <v>178</v>
+        <v>360</v>
       </c>
       <c r="AO10" t="n">
-        <v>163</v>
+        <v>405</v>
       </c>
       <c r="AP10" t="n">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="AQ10" t="n">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="AR10" t="n">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="AS10" t="n">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AT10" t="n">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="AU10" t="n">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="AV10" t="n">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="AW10" t="n">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="AX10" t="n">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="AY10" t="n">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="BA10" t="n">
-        <v>7193</v>
+        <v>15731</v>
       </c>
       <c r="BB10" t="n">
-        <v>191</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11">
@@ -2203,163 +2203,163 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="C11" t="n">
-        <v>179</v>
+        <v>382</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>472</v>
       </c>
       <c r="E11" t="n">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="F11" t="n">
-        <v>181</v>
+        <v>397</v>
       </c>
       <c r="G11" t="n">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="H11" t="n">
-        <v>162</v>
+        <v>460</v>
       </c>
       <c r="I11" t="n">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="J11" t="n">
-        <v>157</v>
+        <v>424</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="L11" t="n">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="M11" t="n">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="N11" t="n">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="O11" t="n">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="P11" t="n">
-        <v>176</v>
+        <v>362</v>
       </c>
       <c r="Q11" t="n">
-        <v>184</v>
+        <v>363</v>
       </c>
       <c r="R11" t="n">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="S11" t="n">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="T11" t="n">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="U11" t="n">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="V11" t="n">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="W11" t="n">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="X11" t="n">
-        <v>177</v>
+        <v>486</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>475</v>
       </c>
       <c r="Z11" t="n">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="AA11" t="n">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="AB11" t="n">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="AC11" t="n">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="AD11" t="n">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="AE11" t="n">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="AF11" t="n">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c r="AG11" t="n">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="AH11" t="n">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="AI11" t="n">
-        <v>171</v>
+        <v>298</v>
       </c>
       <c r="AJ11" t="n">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="AK11" t="n">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="AL11" t="n">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="AM11" t="n">
-        <v>155</v>
+        <v>319</v>
       </c>
       <c r="AN11" t="n">
-        <v>178</v>
+        <v>373</v>
       </c>
       <c r="AO11" t="n">
-        <v>163</v>
+        <v>427</v>
       </c>
       <c r="AP11" t="n">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="AQ11" t="n">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="AR11" t="n">
-        <v>149</v>
+        <v>280</v>
       </c>
       <c r="AS11" t="n">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="AT11" t="n">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="AU11" t="n">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="AV11" t="n">
-        <v>181</v>
+        <v>366</v>
       </c>
       <c r="AW11" t="n">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="AX11" t="n">
-        <v>162</v>
+        <v>350</v>
       </c>
       <c r="AY11" t="n">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c r="AZ11" t="n">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="BA11" t="n">
-        <v>7193</v>
+        <v>16528</v>
       </c>
       <c r="BB11" t="n">
-        <v>191</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12">
@@ -2369,163 +2369,163 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="C12" t="n">
-        <v>179</v>
+        <v>364</v>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>422</v>
       </c>
       <c r="E12" t="n">
-        <v>180</v>
+        <v>387</v>
       </c>
       <c r="F12" t="n">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="G12" t="n">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H12" t="n">
-        <v>162</v>
+        <v>428</v>
       </c>
       <c r="I12" t="n">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="J12" t="n">
-        <v>157</v>
+        <v>408</v>
       </c>
       <c r="K12" t="n">
-        <v>30</v>
+        <v>454</v>
       </c>
       <c r="L12" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="M12" t="n">
-        <v>29</v>
+        <v>404</v>
       </c>
       <c r="N12" t="n">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="O12" t="n">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="P12" t="n">
-        <v>176</v>
+        <v>475</v>
       </c>
       <c r="Q12" t="n">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="R12" t="n">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="S12" t="n">
-        <v>151</v>
+        <v>437</v>
       </c>
       <c r="T12" t="n">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="U12" t="n">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="V12" t="n">
-        <v>178</v>
+        <v>428</v>
       </c>
       <c r="W12" t="n">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="X12" t="n">
-        <v>177</v>
+        <v>463</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>488</v>
       </c>
       <c r="Z12" t="n">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="AA12" t="n">
-        <v>159</v>
+        <v>553</v>
       </c>
       <c r="AB12" t="n">
-        <v>174</v>
+        <v>535</v>
       </c>
       <c r="AC12" t="n">
-        <v>166</v>
+        <v>566</v>
       </c>
       <c r="AD12" t="n">
-        <v>152</v>
+        <v>599</v>
       </c>
       <c r="AE12" t="n">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="AF12" t="n">
-        <v>168</v>
+        <v>593</v>
       </c>
       <c r="AG12" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AH12" t="n">
-        <v>169</v>
+        <v>573</v>
       </c>
       <c r="AI12" t="n">
-        <v>171</v>
+        <v>512</v>
       </c>
       <c r="AJ12" t="n">
-        <v>181</v>
+        <v>583</v>
       </c>
       <c r="AK12" t="n">
-        <v>180</v>
+        <v>522</v>
       </c>
       <c r="AL12" t="n">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="AM12" t="n">
-        <v>155</v>
+        <v>573</v>
       </c>
       <c r="AN12" t="n">
-        <v>178</v>
+        <v>592</v>
       </c>
       <c r="AO12" t="n">
-        <v>163</v>
+        <v>634</v>
       </c>
       <c r="AP12" t="n">
-        <v>157</v>
+        <v>547</v>
       </c>
       <c r="AQ12" t="n">
-        <v>168</v>
+        <v>533</v>
       </c>
       <c r="AR12" t="n">
-        <v>149</v>
+        <v>553</v>
       </c>
       <c r="AS12" t="n">
-        <v>171</v>
+        <v>520</v>
       </c>
       <c r="AT12" t="n">
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="AU12" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AV12" t="n">
-        <v>181</v>
+        <v>588</v>
       </c>
       <c r="AW12" t="n">
-        <v>181</v>
+        <v>543</v>
       </c>
       <c r="AX12" t="n">
-        <v>162</v>
+        <v>600</v>
       </c>
       <c r="AY12" t="n">
-        <v>164</v>
+        <v>588</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="BA12" t="n">
-        <v>7193</v>
+        <v>24015</v>
       </c>
       <c r="BB12" t="n">
-        <v>191</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13">
@@ -2535,163 +2535,163 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="C13" t="n">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="E13" t="n">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="F13" t="n">
-        <v>281</v>
+        <v>376</v>
       </c>
       <c r="G13" t="n">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H13" t="n">
-        <v>264</v>
+        <v>428</v>
       </c>
       <c r="I13" t="n">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="J13" t="n">
-        <v>258</v>
+        <v>408</v>
       </c>
       <c r="K13" t="n">
-        <v>27</v>
+        <v>454</v>
       </c>
       <c r="L13" t="n">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="M13" t="n">
-        <v>28</v>
+        <v>404</v>
       </c>
       <c r="N13" t="n">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="O13" t="n">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="P13" t="n">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="Q13" t="n">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="R13" t="n">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="S13" t="n">
-        <v>246</v>
+        <v>437</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="U13" t="n">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="V13" t="n">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="W13" t="n">
-        <v>264</v>
+        <v>382</v>
       </c>
       <c r="X13" t="n">
-        <v>275</v>
+        <v>463</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>488</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="AA13" t="n">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="AB13" t="n">
-        <v>171</v>
+        <v>535</v>
       </c>
       <c r="AC13" t="n">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="AD13" t="n">
-        <v>152</v>
+        <v>599</v>
       </c>
       <c r="AE13" t="n">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="AF13" t="n">
-        <v>164</v>
+        <v>593</v>
       </c>
       <c r="AG13" t="n">
-        <v>167</v>
+        <v>571</v>
       </c>
       <c r="AH13" t="n">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="AI13" t="n">
-        <v>171</v>
+        <v>512</v>
       </c>
       <c r="AJ13" t="n">
-        <v>182</v>
+        <v>583</v>
       </c>
       <c r="AK13" t="n">
-        <v>188</v>
+        <v>522</v>
       </c>
       <c r="AL13" t="n">
-        <v>162</v>
+        <v>548</v>
       </c>
       <c r="AM13" t="n">
-        <v>153</v>
+        <v>573</v>
       </c>
       <c r="AN13" t="n">
-        <v>175</v>
+        <v>592</v>
       </c>
       <c r="AO13" t="n">
-        <v>159</v>
+        <v>634</v>
       </c>
       <c r="AP13" t="n">
-        <v>162</v>
+        <v>547</v>
       </c>
       <c r="AQ13" t="n">
-        <v>168</v>
+        <v>533</v>
       </c>
       <c r="AR13" t="n">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="AS13" t="n">
-        <v>174</v>
+        <v>520</v>
       </c>
       <c r="AT13" t="n">
-        <v>173</v>
+        <v>530</v>
       </c>
       <c r="AU13" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AV13" t="n">
-        <v>181</v>
+        <v>588</v>
       </c>
       <c r="AW13" t="n">
-        <v>172</v>
+        <v>543</v>
       </c>
       <c r="AX13" t="n">
-        <v>165</v>
+        <v>600</v>
       </c>
       <c r="AY13" t="n">
-        <v>165</v>
+        <v>588</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="BA13" t="n">
-        <v>8774</v>
+        <v>24015</v>
       </c>
       <c r="BB13" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14">
@@ -2701,163 +2701,163 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="C14" t="n">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="E14" t="n">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="F14" t="n">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="G14" t="n">
-        <v>38</v>
+        <v>328</v>
       </c>
       <c r="H14" t="n">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="I14" t="n">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="J14" t="n">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="K14" t="n">
-        <v>27</v>
+        <v>457</v>
       </c>
       <c r="L14" t="n">
-        <v>247</v>
+        <v>414</v>
       </c>
       <c r="M14" t="n">
-        <v>28</v>
+        <v>445</v>
       </c>
       <c r="N14" t="n">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="O14" t="n">
-        <v>274</v>
+        <v>380</v>
       </c>
       <c r="P14" t="n">
-        <v>280</v>
+        <v>488</v>
       </c>
       <c r="Q14" t="n">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="R14" t="n">
-        <v>21</v>
+        <v>325</v>
       </c>
       <c r="S14" t="n">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="T14" t="n">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="U14" t="n">
-        <v>31</v>
+        <v>437</v>
       </c>
       <c r="V14" t="n">
-        <v>280</v>
+        <v>453</v>
       </c>
       <c r="W14" t="n">
-        <v>264</v>
+        <v>429</v>
       </c>
       <c r="X14" t="n">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>458</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>443</v>
       </c>
       <c r="AA14" t="n">
-        <v>148</v>
+        <v>468</v>
       </c>
       <c r="AB14" t="n">
-        <v>171</v>
+        <v>419</v>
       </c>
       <c r="AC14" t="n">
-        <v>162</v>
+        <v>458</v>
       </c>
       <c r="AD14" t="n">
-        <v>152</v>
+        <v>480</v>
       </c>
       <c r="AE14" t="n">
-        <v>168</v>
+        <v>420</v>
       </c>
       <c r="AF14" t="n">
-        <v>164</v>
+        <v>473</v>
       </c>
       <c r="AG14" t="n">
-        <v>167</v>
+        <v>432</v>
       </c>
       <c r="AH14" t="n">
-        <v>177</v>
+        <v>470</v>
       </c>
       <c r="AI14" t="n">
-        <v>171</v>
+        <v>422</v>
       </c>
       <c r="AJ14" t="n">
-        <v>182</v>
+        <v>465</v>
       </c>
       <c r="AK14" t="n">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="AL14" t="n">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="AM14" t="n">
-        <v>153</v>
+        <v>464</v>
       </c>
       <c r="AN14" t="n">
-        <v>175</v>
+        <v>483</v>
       </c>
       <c r="AO14" t="n">
-        <v>159</v>
+        <v>527</v>
       </c>
       <c r="AP14" t="n">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="AQ14" t="n">
-        <v>168</v>
+        <v>407</v>
       </c>
       <c r="AR14" t="n">
-        <v>148</v>
+        <v>423</v>
       </c>
       <c r="AS14" t="n">
-        <v>174</v>
+        <v>404</v>
       </c>
       <c r="AT14" t="n">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="AU14" t="n">
-        <v>162</v>
+        <v>433</v>
       </c>
       <c r="AV14" t="n">
-        <v>181</v>
+        <v>468</v>
       </c>
       <c r="AW14" t="n">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="AX14" t="n">
-        <v>165</v>
+        <v>489</v>
       </c>
       <c r="AY14" t="n">
-        <v>165</v>
+        <v>464</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="BA14" t="n">
-        <v>8774</v>
+        <v>21070</v>
       </c>
       <c r="BB14" t="n">
-        <v>292</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15">
@@ -2867,163 +2867,163 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="C15" t="n">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>364</v>
       </c>
       <c r="E15" t="n">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="F15" t="n">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="G15" t="n">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="H15" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="I15" t="n">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="J15" t="n">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="K15" t="n">
-        <v>27</v>
+        <v>368</v>
       </c>
       <c r="L15" t="n">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="M15" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="N15" t="n">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="O15" t="n">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="P15" t="n">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="n">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="R15" t="n">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="S15" t="n">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="T15" t="n">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="U15" t="n">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="V15" t="n">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="W15" t="n">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="X15" t="n">
-        <v>275</v>
+        <v>398</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="AA15" t="n">
-        <v>148</v>
+        <v>463</v>
       </c>
       <c r="AB15" t="n">
-        <v>171</v>
+        <v>445</v>
       </c>
       <c r="AC15" t="n">
-        <v>162</v>
+        <v>474</v>
       </c>
       <c r="AD15" t="n">
-        <v>152</v>
+        <v>496</v>
       </c>
       <c r="AE15" t="n">
-        <v>168</v>
+        <v>432</v>
       </c>
       <c r="AF15" t="n">
-        <v>164</v>
+        <v>498</v>
       </c>
       <c r="AG15" t="n">
-        <v>167</v>
+        <v>478</v>
       </c>
       <c r="AH15" t="n">
-        <v>177</v>
+        <v>480</v>
       </c>
       <c r="AI15" t="n">
-        <v>171</v>
+        <v>428</v>
       </c>
       <c r="AJ15" t="n">
-        <v>182</v>
+        <v>473</v>
       </c>
       <c r="AK15" t="n">
-        <v>188</v>
+        <v>437</v>
       </c>
       <c r="AL15" t="n">
-        <v>162</v>
+        <v>467</v>
       </c>
       <c r="AM15" t="n">
-        <v>153</v>
+        <v>479</v>
       </c>
       <c r="AN15" t="n">
-        <v>175</v>
+        <v>489</v>
       </c>
       <c r="AO15" t="n">
-        <v>159</v>
+        <v>522</v>
       </c>
       <c r="AP15" t="n">
-        <v>162</v>
+        <v>465</v>
       </c>
       <c r="AQ15" t="n">
-        <v>168</v>
+        <v>444</v>
       </c>
       <c r="AR15" t="n">
-        <v>148</v>
+        <v>455</v>
       </c>
       <c r="AS15" t="n">
-        <v>174</v>
+        <v>436</v>
       </c>
       <c r="AT15" t="n">
-        <v>173</v>
+        <v>442</v>
       </c>
       <c r="AU15" t="n">
-        <v>162</v>
+        <v>475</v>
       </c>
       <c r="AV15" t="n">
-        <v>181</v>
+        <v>485</v>
       </c>
       <c r="AW15" t="n">
-        <v>172</v>
+        <v>453</v>
       </c>
       <c r="AX15" t="n">
-        <v>165</v>
+        <v>501</v>
       </c>
       <c r="AY15" t="n">
-        <v>165</v>
+        <v>489</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="BA15" t="n">
-        <v>8774</v>
+        <v>20391</v>
       </c>
       <c r="BB15" t="n">
-        <v>292</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16">
@@ -3033,163 +3033,163 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="C16" t="n">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="E16" t="n">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="F16" t="n">
-        <v>281</v>
+        <v>376</v>
       </c>
       <c r="G16" t="n">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H16" t="n">
-        <v>264</v>
+        <v>428</v>
       </c>
       <c r="I16" t="n">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="J16" t="n">
-        <v>258</v>
+        <v>408</v>
       </c>
       <c r="K16" t="n">
-        <v>27</v>
+        <v>454</v>
       </c>
       <c r="L16" t="n">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="M16" t="n">
-        <v>28</v>
+        <v>404</v>
       </c>
       <c r="N16" t="n">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="O16" t="n">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="P16" t="n">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="Q16" t="n">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="R16" t="n">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="S16" t="n">
-        <v>246</v>
+        <v>437</v>
       </c>
       <c r="T16" t="n">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="U16" t="n">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="V16" t="n">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="W16" t="n">
-        <v>264</v>
+        <v>382</v>
       </c>
       <c r="X16" t="n">
-        <v>275</v>
+        <v>463</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>488</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="AA16" t="n">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="AB16" t="n">
-        <v>171</v>
+        <v>535</v>
       </c>
       <c r="AC16" t="n">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="AD16" t="n">
-        <v>152</v>
+        <v>599</v>
       </c>
       <c r="AE16" t="n">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="AF16" t="n">
-        <v>164</v>
+        <v>593</v>
       </c>
       <c r="AG16" t="n">
-        <v>167</v>
+        <v>571</v>
       </c>
       <c r="AH16" t="n">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="AI16" t="n">
-        <v>171</v>
+        <v>512</v>
       </c>
       <c r="AJ16" t="n">
-        <v>182</v>
+        <v>583</v>
       </c>
       <c r="AK16" t="n">
-        <v>188</v>
+        <v>522</v>
       </c>
       <c r="AL16" t="n">
-        <v>162</v>
+        <v>548</v>
       </c>
       <c r="AM16" t="n">
-        <v>153</v>
+        <v>573</v>
       </c>
       <c r="AN16" t="n">
-        <v>175</v>
+        <v>592</v>
       </c>
       <c r="AO16" t="n">
-        <v>159</v>
+        <v>634</v>
       </c>
       <c r="AP16" t="n">
-        <v>162</v>
+        <v>547</v>
       </c>
       <c r="AQ16" t="n">
-        <v>168</v>
+        <v>533</v>
       </c>
       <c r="AR16" t="n">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="AS16" t="n">
-        <v>174</v>
+        <v>520</v>
       </c>
       <c r="AT16" t="n">
-        <v>173</v>
+        <v>530</v>
       </c>
       <c r="AU16" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AV16" t="n">
-        <v>181</v>
+        <v>588</v>
       </c>
       <c r="AW16" t="n">
-        <v>172</v>
+        <v>543</v>
       </c>
       <c r="AX16" t="n">
-        <v>165</v>
+        <v>600</v>
       </c>
       <c r="AY16" t="n">
-        <v>165</v>
+        <v>588</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="BA16" t="n">
-        <v>8774</v>
+        <v>24015</v>
       </c>
       <c r="BB16" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17">
@@ -3199,163 +3199,163 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="C17" t="n">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="E17" t="n">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="F17" t="n">
-        <v>281</v>
+        <v>376</v>
       </c>
       <c r="G17" t="n">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H17" t="n">
-        <v>264</v>
+        <v>428</v>
       </c>
       <c r="I17" t="n">
-        <v>292</v>
+        <v>386</v>
       </c>
       <c r="J17" t="n">
-        <v>258</v>
+        <v>408</v>
       </c>
       <c r="K17" t="n">
-        <v>27</v>
+        <v>454</v>
       </c>
       <c r="L17" t="n">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="M17" t="n">
-        <v>28</v>
+        <v>404</v>
       </c>
       <c r="N17" t="n">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="O17" t="n">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="P17" t="n">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="Q17" t="n">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="R17" t="n">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="S17" t="n">
-        <v>246</v>
+        <v>437</v>
       </c>
       <c r="T17" t="n">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="U17" t="n">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="V17" t="n">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="W17" t="n">
-        <v>264</v>
+        <v>382</v>
       </c>
       <c r="X17" t="n">
-        <v>275</v>
+        <v>463</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>488</v>
       </c>
       <c r="Z17" t="n">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="AA17" t="n">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="AB17" t="n">
-        <v>171</v>
+        <v>535</v>
       </c>
       <c r="AC17" t="n">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="AD17" t="n">
-        <v>152</v>
+        <v>599</v>
       </c>
       <c r="AE17" t="n">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="AF17" t="n">
-        <v>164</v>
+        <v>593</v>
       </c>
       <c r="AG17" t="n">
-        <v>167</v>
+        <v>571</v>
       </c>
       <c r="AH17" t="n">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="AI17" t="n">
-        <v>171</v>
+        <v>512</v>
       </c>
       <c r="AJ17" t="n">
-        <v>182</v>
+        <v>583</v>
       </c>
       <c r="AK17" t="n">
-        <v>188</v>
+        <v>522</v>
       </c>
       <c r="AL17" t="n">
-        <v>162</v>
+        <v>548</v>
       </c>
       <c r="AM17" t="n">
-        <v>153</v>
+        <v>573</v>
       </c>
       <c r="AN17" t="n">
-        <v>175</v>
+        <v>592</v>
       </c>
       <c r="AO17" t="n">
-        <v>159</v>
+        <v>634</v>
       </c>
       <c r="AP17" t="n">
-        <v>162</v>
+        <v>547</v>
       </c>
       <c r="AQ17" t="n">
-        <v>168</v>
+        <v>533</v>
       </c>
       <c r="AR17" t="n">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="AS17" t="n">
-        <v>174</v>
+        <v>520</v>
       </c>
       <c r="AT17" t="n">
-        <v>173</v>
+        <v>530</v>
       </c>
       <c r="AU17" t="n">
-        <v>162</v>
+        <v>571</v>
       </c>
       <c r="AV17" t="n">
-        <v>181</v>
+        <v>588</v>
       </c>
       <c r="AW17" t="n">
-        <v>172</v>
+        <v>543</v>
       </c>
       <c r="AX17" t="n">
-        <v>165</v>
+        <v>600</v>
       </c>
       <c r="AY17" t="n">
-        <v>165</v>
+        <v>588</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="BA17" t="n">
-        <v>8774</v>
+        <v>24015</v>
       </c>
       <c r="BB17" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -3651,163 +3651,163 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-988</v>
+        <v>-425</v>
       </c>
       <c r="C2" t="n">
-        <v>-913</v>
+        <v>-314</v>
       </c>
       <c r="D2" t="n">
-        <v>-1090</v>
+        <v>-404</v>
       </c>
       <c r="E2" t="n">
-        <v>-1073</v>
+        <v>-349</v>
       </c>
       <c r="F2" t="n">
-        <v>-763</v>
+        <v>-330</v>
       </c>
       <c r="G2" t="n">
-        <v>-1024</v>
+        <v>-256</v>
       </c>
       <c r="H2" t="n">
-        <v>-913</v>
+        <v>-491</v>
       </c>
       <c r="I2" t="n">
-        <v>-962</v>
+        <v>-813</v>
       </c>
       <c r="J2" t="n">
-        <v>-838</v>
+        <v>-335</v>
       </c>
       <c r="K2" t="n">
-        <v>-1226</v>
+        <v>-946</v>
       </c>
       <c r="L2" t="n">
+        <v>-835</v>
+      </c>
+      <c r="M2" t="n">
         <v>-936</v>
       </c>
-      <c r="M2" t="n">
-        <v>-1187</v>
-      </c>
       <c r="N2" t="n">
-        <v>-1078</v>
+        <v>-247</v>
       </c>
       <c r="O2" t="n">
-        <v>-900</v>
+        <v>-733</v>
       </c>
       <c r="P2" t="n">
-        <v>-999</v>
+        <v>-1063</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1029</v>
+        <v>-378</v>
       </c>
       <c r="R2" t="n">
-        <v>-1332</v>
+        <v>-376</v>
       </c>
       <c r="S2" t="n">
-        <v>-915</v>
+        <v>-951</v>
       </c>
       <c r="T2" t="n">
-        <v>-1122</v>
+        <v>-378</v>
       </c>
       <c r="U2" t="n">
-        <v>-1140</v>
+        <v>-949</v>
       </c>
       <c r="V2" t="n">
-        <v>-1114</v>
+        <v>-919</v>
       </c>
       <c r="W2" t="n">
-        <v>-855</v>
+        <v>-824</v>
       </c>
       <c r="X2" t="n">
-        <v>-1086</v>
+        <v>-470</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1085</v>
+        <v>-562</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1205</v>
+        <v>-941</v>
       </c>
       <c r="AA2" t="n">
-        <v>-831</v>
+        <v>-520</v>
       </c>
       <c r="AB2" t="n">
-        <v>-856</v>
+        <v>-395</v>
       </c>
       <c r="AC2" t="n">
-        <v>-825</v>
+        <v>-443</v>
       </c>
       <c r="AD2" t="n">
-        <v>-932</v>
+        <v>-507</v>
       </c>
       <c r="AE2" t="n">
-        <v>-845</v>
+        <v>-321</v>
       </c>
       <c r="AF2" t="n">
-        <v>-894</v>
+        <v>-425</v>
       </c>
       <c r="AG2" t="n">
-        <v>-948</v>
+        <v>-324</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1081</v>
+        <v>-492</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1051</v>
+        <v>-446</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-987</v>
+        <v>-464</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1202</v>
+        <v>-431</v>
       </c>
       <c r="AL2" t="n">
-        <v>-828</v>
+        <v>-365</v>
       </c>
       <c r="AM2" t="n">
-        <v>-800</v>
+        <v>-439</v>
       </c>
       <c r="AN2" t="n">
-        <v>-806</v>
+        <v>-555</v>
       </c>
       <c r="AO2" t="n">
-        <v>-811</v>
+        <v>-636</v>
       </c>
       <c r="AP2" t="n">
-        <v>-996</v>
+        <v>-444</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-877</v>
+        <v>-273</v>
       </c>
       <c r="AR2" t="n">
-        <v>-837</v>
+        <v>-333</v>
       </c>
       <c r="AS2" t="n">
-        <v>-766</v>
+        <v>-256</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1027</v>
+        <v>-281</v>
       </c>
       <c r="AU2" t="n">
-        <v>-906</v>
+        <v>-320</v>
       </c>
       <c r="AV2" t="n">
-        <v>-922</v>
+        <v>-532</v>
       </c>
       <c r="AW2" t="n">
-        <v>-943</v>
+        <v>-238</v>
       </c>
       <c r="AX2" t="n">
-        <v>-876</v>
+        <v>-443</v>
       </c>
       <c r="AY2" t="n">
-        <v>-751</v>
+        <v>-396</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1332</v>
+        <v>-1063</v>
       </c>
       <c r="BA2" t="n">
-        <v>-48371</v>
+        <v>-25504</v>
       </c>
       <c r="BB2" t="n">
-        <v>-751</v>
+        <v>-238</v>
       </c>
     </row>
     <row r="3">
@@ -3817,163 +3817,163 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-778</v>
+        <v>-531</v>
       </c>
       <c r="C3" t="n">
-        <v>-715</v>
+        <v>-412</v>
       </c>
       <c r="D3" t="n">
-        <v>-1096</v>
+        <v>-504</v>
       </c>
       <c r="E3" t="n">
-        <v>-873</v>
+        <v>-425</v>
       </c>
       <c r="F3" t="n">
-        <v>-563</v>
+        <v>-424</v>
       </c>
       <c r="G3" t="n">
-        <v>-1024</v>
+        <v>-364</v>
       </c>
       <c r="H3" t="n">
-        <v>-709</v>
+        <v>-549</v>
       </c>
       <c r="I3" t="n">
-        <v>-760</v>
+        <v>-381</v>
       </c>
       <c r="J3" t="n">
-        <v>-636</v>
+        <v>-437</v>
       </c>
       <c r="K3" t="n">
-        <v>-1232</v>
+        <v>-506</v>
       </c>
       <c r="L3" t="n">
-        <v>-748</v>
+        <v>-375</v>
       </c>
       <c r="M3" t="n">
-        <v>-1189</v>
+        <v>-428</v>
       </c>
       <c r="N3" t="n">
-        <v>-872</v>
+        <v>-399</v>
       </c>
       <c r="O3" t="n">
-        <v>-698</v>
+        <v>-323</v>
       </c>
       <c r="P3" t="n">
-        <v>-791</v>
+        <v>-559</v>
       </c>
       <c r="Q3" t="n">
-        <v>-827</v>
+        <v>-422</v>
       </c>
       <c r="R3" t="n">
-        <v>-1336</v>
+        <v>-378</v>
       </c>
       <c r="S3" t="n">
-        <v>-725</v>
+        <v>-491</v>
       </c>
       <c r="T3" t="n">
-        <v>-1108</v>
+        <v>-426</v>
       </c>
       <c r="U3" t="n">
-        <v>-1144</v>
+        <v>-471</v>
       </c>
       <c r="V3" t="n">
-        <v>-910</v>
+        <v>-439</v>
       </c>
       <c r="W3" t="n">
-        <v>-651</v>
+        <v>-342</v>
       </c>
       <c r="X3" t="n">
-        <v>-890</v>
+        <v>-544</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1083</v>
+        <v>-562</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1227</v>
+        <v>-415</v>
       </c>
       <c r="AA3" t="n">
-        <v>-853</v>
+        <v>-250</v>
       </c>
       <c r="AB3" t="n">
-        <v>-862</v>
+        <v>-151</v>
       </c>
       <c r="AC3" t="n">
-        <v>-833</v>
+        <v>-125</v>
       </c>
       <c r="AD3" t="n">
-        <v>-932</v>
+        <v>-251</v>
       </c>
       <c r="AE3" t="n">
-        <v>-845</v>
+        <v>-31</v>
       </c>
       <c r="AF3" t="n">
-        <v>-902</v>
+        <v>-143</v>
       </c>
       <c r="AG3" t="n">
-        <v>-938</v>
+        <v>-78</v>
       </c>
       <c r="AH3" t="n">
-        <v>-1065</v>
+        <v>-216</v>
       </c>
       <c r="AI3" t="n">
-        <v>-1051</v>
+        <v>-144</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-985</v>
+        <v>-192</v>
       </c>
       <c r="AK3" t="n">
-        <v>-1186</v>
+        <v>-123</v>
       </c>
       <c r="AL3" t="n">
-        <v>-830</v>
+        <v>-31</v>
       </c>
       <c r="AM3" t="n">
-        <v>-804</v>
+        <v>-153</v>
       </c>
       <c r="AN3" t="n">
-        <v>-812</v>
+        <v>-279</v>
       </c>
       <c r="AO3" t="n">
-        <v>-819</v>
+        <v>-372</v>
       </c>
       <c r="AP3" t="n">
-        <v>-986</v>
+        <v>-168</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-877</v>
+        <v>-7</v>
       </c>
       <c r="AR3" t="n">
-        <v>-839</v>
+        <v>-59</v>
       </c>
       <c r="AS3" t="n">
-        <v>-760</v>
+        <v>48</v>
       </c>
       <c r="AT3" t="n">
-        <v>-1037</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>-906</v>
+        <v>-54</v>
       </c>
       <c r="AV3" t="n">
-        <v>-922</v>
+        <v>-240</v>
       </c>
       <c r="AW3" t="n">
-        <v>-961</v>
+        <v>34</v>
       </c>
       <c r="AX3" t="n">
-        <v>-870</v>
+        <v>-167</v>
       </c>
       <c r="AY3" t="n">
-        <v>-749</v>
+        <v>-102</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-1336</v>
+        <v>-562</v>
       </c>
       <c r="BA3" t="n">
-        <v>-45209</v>
+        <v>-14346</v>
       </c>
       <c r="BB3" t="n">
-        <v>-563</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -3983,163 +3983,163 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-988</v>
+        <v>-531</v>
       </c>
       <c r="C4" t="n">
-        <v>-913</v>
+        <v>-412</v>
       </c>
       <c r="D4" t="n">
-        <v>-1090</v>
+        <v>-504</v>
       </c>
       <c r="E4" t="n">
-        <v>-1073</v>
+        <v>-425</v>
       </c>
       <c r="F4" t="n">
-        <v>-763</v>
+        <v>-424</v>
       </c>
       <c r="G4" t="n">
-        <v>-1024</v>
+        <v>-364</v>
       </c>
       <c r="H4" t="n">
-        <v>-913</v>
+        <v>-549</v>
       </c>
       <c r="I4" t="n">
-        <v>-962</v>
+        <v>-381</v>
       </c>
       <c r="J4" t="n">
-        <v>-838</v>
+        <v>-437</v>
       </c>
       <c r="K4" t="n">
-        <v>-1226</v>
+        <v>-506</v>
       </c>
       <c r="L4" t="n">
-        <v>-936</v>
+        <v>-375</v>
       </c>
       <c r="M4" t="n">
-        <v>-1187</v>
+        <v>-428</v>
       </c>
       <c r="N4" t="n">
-        <v>-1078</v>
+        <v>-399</v>
       </c>
       <c r="O4" t="n">
-        <v>-900</v>
+        <v>-323</v>
       </c>
       <c r="P4" t="n">
-        <v>-999</v>
+        <v>-559</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1029</v>
+        <v>-422</v>
       </c>
       <c r="R4" t="n">
-        <v>-1332</v>
+        <v>-378</v>
       </c>
       <c r="S4" t="n">
-        <v>-915</v>
+        <v>-491</v>
       </c>
       <c r="T4" t="n">
-        <v>-1122</v>
+        <v>-426</v>
       </c>
       <c r="U4" t="n">
-        <v>-1140</v>
+        <v>-471</v>
       </c>
       <c r="V4" t="n">
-        <v>-1114</v>
+        <v>-439</v>
       </c>
       <c r="W4" t="n">
-        <v>-855</v>
+        <v>-342</v>
       </c>
       <c r="X4" t="n">
-        <v>-1086</v>
+        <v>-544</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1085</v>
+        <v>-562</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1205</v>
+        <v>-415</v>
       </c>
       <c r="AA4" t="n">
-        <v>-831</v>
+        <v>-250</v>
       </c>
       <c r="AB4" t="n">
-        <v>-856</v>
+        <v>-151</v>
       </c>
       <c r="AC4" t="n">
-        <v>-825</v>
+        <v>-125</v>
       </c>
       <c r="AD4" t="n">
-        <v>-932</v>
+        <v>-251</v>
       </c>
       <c r="AE4" t="n">
-        <v>-845</v>
+        <v>-31</v>
       </c>
       <c r="AF4" t="n">
-        <v>-894</v>
+        <v>-143</v>
       </c>
       <c r="AG4" t="n">
-        <v>-948</v>
+        <v>-78</v>
       </c>
       <c r="AH4" t="n">
-        <v>-1081</v>
+        <v>-216</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1051</v>
+        <v>-144</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-987</v>
+        <v>-192</v>
       </c>
       <c r="AK4" t="n">
-        <v>-1202</v>
+        <v>-123</v>
       </c>
       <c r="AL4" t="n">
-        <v>-828</v>
+        <v>-31</v>
       </c>
       <c r="AM4" t="n">
-        <v>-800</v>
+        <v>-153</v>
       </c>
       <c r="AN4" t="n">
-        <v>-806</v>
+        <v>-279</v>
       </c>
       <c r="AO4" t="n">
-        <v>-811</v>
+        <v>-372</v>
       </c>
       <c r="AP4" t="n">
-        <v>-996</v>
+        <v>-168</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-877</v>
+        <v>-7</v>
       </c>
       <c r="AR4" t="n">
-        <v>-837</v>
+        <v>-59</v>
       </c>
       <c r="AS4" t="n">
-        <v>-766</v>
+        <v>48</v>
       </c>
       <c r="AT4" t="n">
-        <v>-1027</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>-906</v>
+        <v>-54</v>
       </c>
       <c r="AV4" t="n">
-        <v>-922</v>
+        <v>-240</v>
       </c>
       <c r="AW4" t="n">
-        <v>-943</v>
+        <v>34</v>
       </c>
       <c r="AX4" t="n">
-        <v>-876</v>
+        <v>-167</v>
       </c>
       <c r="AY4" t="n">
-        <v>-751</v>
+        <v>-102</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-1332</v>
+        <v>-562</v>
       </c>
       <c r="BA4" t="n">
-        <v>-48371</v>
+        <v>-14346</v>
       </c>
       <c r="BB4" t="n">
-        <v>-751</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -4149,163 +4149,163 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-988</v>
+        <v>-283</v>
       </c>
       <c r="C5" t="n">
-        <v>-913</v>
+        <v>-242</v>
       </c>
       <c r="D5" t="n">
-        <v>-1090</v>
+        <v>-282</v>
       </c>
       <c r="E5" t="n">
-        <v>-1073</v>
+        <v>-241</v>
       </c>
       <c r="F5" t="n">
-        <v>-763</v>
+        <v>-248</v>
       </c>
       <c r="G5" t="n">
-        <v>-1024</v>
+        <v>-210</v>
       </c>
       <c r="H5" t="n">
-        <v>-913</v>
+        <v>-335</v>
       </c>
       <c r="I5" t="n">
-        <v>-962</v>
+        <v>-217</v>
       </c>
       <c r="J5" t="n">
-        <v>-838</v>
+        <v>-261</v>
       </c>
       <c r="K5" t="n">
-        <v>-1226</v>
+        <v>-294</v>
       </c>
       <c r="L5" t="n">
-        <v>-936</v>
+        <v>-229</v>
       </c>
       <c r="M5" t="n">
-        <v>-1187</v>
+        <v>-220</v>
       </c>
       <c r="N5" t="n">
-        <v>-1078</v>
+        <v>-265</v>
       </c>
       <c r="O5" t="n">
-        <v>-900</v>
+        <v>-145</v>
       </c>
       <c r="P5" t="n">
-        <v>-999</v>
+        <v>-319</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1029</v>
+        <v>-218</v>
       </c>
       <c r="R5" t="n">
-        <v>-1332</v>
+        <v>-190</v>
       </c>
       <c r="S5" t="n">
-        <v>-915</v>
+        <v>-267</v>
       </c>
       <c r="T5" t="n">
-        <v>-1122</v>
+        <v>-262</v>
       </c>
       <c r="U5" t="n">
-        <v>-1140</v>
+        <v>-259</v>
       </c>
       <c r="V5" t="n">
-        <v>-1114</v>
+        <v>-271</v>
       </c>
       <c r="W5" t="n">
-        <v>-855</v>
+        <v>-172</v>
       </c>
       <c r="X5" t="n">
-        <v>-1086</v>
+        <v>-314</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1085</v>
+        <v>-338</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1205</v>
+        <v>-231</v>
       </c>
       <c r="AA5" t="n">
-        <v>-831</v>
+        <v>-262</v>
       </c>
       <c r="AB5" t="n">
-        <v>-856</v>
+        <v>-283</v>
       </c>
       <c r="AC5" t="n">
-        <v>-825</v>
+        <v>-211</v>
       </c>
       <c r="AD5" t="n">
-        <v>-932</v>
+        <v>-343</v>
       </c>
       <c r="AE5" t="n">
-        <v>-845</v>
+        <v>-145</v>
       </c>
       <c r="AF5" t="n">
-        <v>-894</v>
+        <v>-267</v>
       </c>
       <c r="AG5" t="n">
-        <v>-948</v>
+        <v>-296</v>
       </c>
       <c r="AH5" t="n">
-        <v>-1081</v>
+        <v>-278</v>
       </c>
       <c r="AI5" t="n">
-        <v>-1051</v>
+        <v>-180</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-987</v>
+        <v>-282</v>
       </c>
       <c r="AK5" t="n">
-        <v>-1202</v>
+        <v>-179</v>
       </c>
       <c r="AL5" t="n">
-        <v>-828</v>
+        <v>-141</v>
       </c>
       <c r="AM5" t="n">
-        <v>-800</v>
+        <v>-259</v>
       </c>
       <c r="AN5" t="n">
-        <v>-806</v>
+        <v>-347</v>
       </c>
       <c r="AO5" t="n">
-        <v>-811</v>
+        <v>-398</v>
       </c>
       <c r="AP5" t="n">
-        <v>-996</v>
+        <v>-234</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-877</v>
+        <v>-171</v>
       </c>
       <c r="AR5" t="n">
-        <v>-837</v>
+        <v>-223</v>
       </c>
       <c r="AS5" t="n">
-        <v>-766</v>
+        <v>-130</v>
       </c>
       <c r="AT5" t="n">
-        <v>-1027</v>
+        <v>-161</v>
       </c>
       <c r="AU5" t="n">
-        <v>-906</v>
+        <v>-242</v>
       </c>
       <c r="AV5" t="n">
-        <v>-922</v>
+        <v>-320</v>
       </c>
       <c r="AW5" t="n">
-        <v>-943</v>
+        <v>-158</v>
       </c>
       <c r="AX5" t="n">
-        <v>-876</v>
+        <v>-263</v>
       </c>
       <c r="AY5" t="n">
-        <v>-751</v>
+        <v>-242</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-1332</v>
+        <v>-398</v>
       </c>
       <c r="BA5" t="n">
-        <v>-48371</v>
+        <v>-12328</v>
       </c>
       <c r="BB5" t="n">
-        <v>-751</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="6">
@@ -4315,163 +4315,163 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-988</v>
+        <v>-425</v>
       </c>
       <c r="C6" t="n">
-        <v>-913</v>
+        <v>-314</v>
       </c>
       <c r="D6" t="n">
-        <v>-1090</v>
+        <v>-404</v>
       </c>
       <c r="E6" t="n">
-        <v>-1073</v>
+        <v>-349</v>
       </c>
       <c r="F6" t="n">
-        <v>-763</v>
+        <v>-330</v>
       </c>
       <c r="G6" t="n">
-        <v>-1024</v>
+        <v>-256</v>
       </c>
       <c r="H6" t="n">
-        <v>-913</v>
+        <v>-491</v>
       </c>
       <c r="I6" t="n">
-        <v>-962</v>
+        <v>-813</v>
       </c>
       <c r="J6" t="n">
-        <v>-838</v>
+        <v>-335</v>
       </c>
       <c r="K6" t="n">
-        <v>-1226</v>
+        <v>-946</v>
       </c>
       <c r="L6" t="n">
+        <v>-835</v>
+      </c>
+      <c r="M6" t="n">
         <v>-936</v>
       </c>
-      <c r="M6" t="n">
-        <v>-1187</v>
-      </c>
       <c r="N6" t="n">
-        <v>-1078</v>
+        <v>-247</v>
       </c>
       <c r="O6" t="n">
-        <v>-900</v>
+        <v>-733</v>
       </c>
       <c r="P6" t="n">
-        <v>-999</v>
+        <v>-1063</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1029</v>
+        <v>-378</v>
       </c>
       <c r="R6" t="n">
-        <v>-1332</v>
+        <v>-376</v>
       </c>
       <c r="S6" t="n">
-        <v>-915</v>
+        <v>-951</v>
       </c>
       <c r="T6" t="n">
-        <v>-1122</v>
+        <v>-378</v>
       </c>
       <c r="U6" t="n">
-        <v>-1140</v>
+        <v>-949</v>
       </c>
       <c r="V6" t="n">
-        <v>-1114</v>
+        <v>-919</v>
       </c>
       <c r="W6" t="n">
-        <v>-855</v>
+        <v>-824</v>
       </c>
       <c r="X6" t="n">
-        <v>-1086</v>
+        <v>-470</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1085</v>
+        <v>-562</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1205</v>
+        <v>-941</v>
       </c>
       <c r="AA6" t="n">
-        <v>-831</v>
+        <v>-520</v>
       </c>
       <c r="AB6" t="n">
-        <v>-856</v>
+        <v>-395</v>
       </c>
       <c r="AC6" t="n">
-        <v>-825</v>
+        <v>-443</v>
       </c>
       <c r="AD6" t="n">
-        <v>-932</v>
+        <v>-507</v>
       </c>
       <c r="AE6" t="n">
-        <v>-845</v>
+        <v>-321</v>
       </c>
       <c r="AF6" t="n">
-        <v>-894</v>
+        <v>-425</v>
       </c>
       <c r="AG6" t="n">
-        <v>-948</v>
+        <v>-324</v>
       </c>
       <c r="AH6" t="n">
-        <v>-1081</v>
+        <v>-492</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1051</v>
+        <v>-446</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-987</v>
+        <v>-464</v>
       </c>
       <c r="AK6" t="n">
-        <v>-1202</v>
+        <v>-431</v>
       </c>
       <c r="AL6" t="n">
-        <v>-828</v>
+        <v>-365</v>
       </c>
       <c r="AM6" t="n">
-        <v>-800</v>
+        <v>-439</v>
       </c>
       <c r="AN6" t="n">
-        <v>-806</v>
+        <v>-555</v>
       </c>
       <c r="AO6" t="n">
-        <v>-811</v>
+        <v>-636</v>
       </c>
       <c r="AP6" t="n">
-        <v>-996</v>
+        <v>-444</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-877</v>
+        <v>-273</v>
       </c>
       <c r="AR6" t="n">
-        <v>-837</v>
+        <v>-333</v>
       </c>
       <c r="AS6" t="n">
-        <v>-766</v>
+        <v>-256</v>
       </c>
       <c r="AT6" t="n">
-        <v>-1027</v>
+        <v>-281</v>
       </c>
       <c r="AU6" t="n">
-        <v>-906</v>
+        <v>-320</v>
       </c>
       <c r="AV6" t="n">
-        <v>-922</v>
+        <v>-532</v>
       </c>
       <c r="AW6" t="n">
-        <v>-943</v>
+        <v>-238</v>
       </c>
       <c r="AX6" t="n">
-        <v>-876</v>
+        <v>-443</v>
       </c>
       <c r="AY6" t="n">
-        <v>-751</v>
+        <v>-396</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-1332</v>
+        <v>-1063</v>
       </c>
       <c r="BA6" t="n">
-        <v>-48371</v>
+        <v>-25504</v>
       </c>
       <c r="BB6" t="n">
-        <v>-751</v>
+        <v>-238</v>
       </c>
     </row>
     <row r="7">
@@ -4481,163 +4481,163 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-988</v>
+        <v>-531</v>
       </c>
       <c r="C7" t="n">
-        <v>-913</v>
+        <v>-412</v>
       </c>
       <c r="D7" t="n">
-        <v>-1090</v>
+        <v>-504</v>
       </c>
       <c r="E7" t="n">
-        <v>-1073</v>
+        <v>-425</v>
       </c>
       <c r="F7" t="n">
-        <v>-763</v>
+        <v>-424</v>
       </c>
       <c r="G7" t="n">
-        <v>-1024</v>
+        <v>-364</v>
       </c>
       <c r="H7" t="n">
-        <v>-913</v>
+        <v>-549</v>
       </c>
       <c r="I7" t="n">
-        <v>-962</v>
+        <v>-381</v>
       </c>
       <c r="J7" t="n">
-        <v>-838</v>
+        <v>-437</v>
       </c>
       <c r="K7" t="n">
-        <v>-1226</v>
+        <v>-506</v>
       </c>
       <c r="L7" t="n">
-        <v>-936</v>
+        <v>-375</v>
       </c>
       <c r="M7" t="n">
-        <v>-1187</v>
+        <v>-428</v>
       </c>
       <c r="N7" t="n">
-        <v>-1078</v>
+        <v>-399</v>
       </c>
       <c r="O7" t="n">
-        <v>-900</v>
+        <v>-323</v>
       </c>
       <c r="P7" t="n">
-        <v>-999</v>
+        <v>-559</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1029</v>
+        <v>-422</v>
       </c>
       <c r="R7" t="n">
-        <v>-1332</v>
+        <v>-378</v>
       </c>
       <c r="S7" t="n">
-        <v>-915</v>
+        <v>-491</v>
       </c>
       <c r="T7" t="n">
-        <v>-1122</v>
+        <v>-426</v>
       </c>
       <c r="U7" t="n">
-        <v>-1140</v>
+        <v>-471</v>
       </c>
       <c r="V7" t="n">
-        <v>-1114</v>
+        <v>-439</v>
       </c>
       <c r="W7" t="n">
-        <v>-855</v>
+        <v>-342</v>
       </c>
       <c r="X7" t="n">
-        <v>-1086</v>
+        <v>-544</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1085</v>
+        <v>-562</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1205</v>
+        <v>-415</v>
       </c>
       <c r="AA7" t="n">
-        <v>-831</v>
+        <v>-250</v>
       </c>
       <c r="AB7" t="n">
-        <v>-856</v>
+        <v>-151</v>
       </c>
       <c r="AC7" t="n">
-        <v>-825</v>
+        <v>-125</v>
       </c>
       <c r="AD7" t="n">
-        <v>-932</v>
+        <v>-251</v>
       </c>
       <c r="AE7" t="n">
-        <v>-845</v>
+        <v>-31</v>
       </c>
       <c r="AF7" t="n">
-        <v>-894</v>
+        <v>-143</v>
       </c>
       <c r="AG7" t="n">
-        <v>-948</v>
+        <v>-78</v>
       </c>
       <c r="AH7" t="n">
-        <v>-1081</v>
+        <v>-216</v>
       </c>
       <c r="AI7" t="n">
-        <v>-1051</v>
+        <v>-144</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-987</v>
+        <v>-192</v>
       </c>
       <c r="AK7" t="n">
-        <v>-1202</v>
+        <v>-123</v>
       </c>
       <c r="AL7" t="n">
-        <v>-828</v>
+        <v>-31</v>
       </c>
       <c r="AM7" t="n">
-        <v>-800</v>
+        <v>-153</v>
       </c>
       <c r="AN7" t="n">
-        <v>-806</v>
+        <v>-279</v>
       </c>
       <c r="AO7" t="n">
-        <v>-811</v>
+        <v>-372</v>
       </c>
       <c r="AP7" t="n">
-        <v>-996</v>
+        <v>-168</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-877</v>
+        <v>-7</v>
       </c>
       <c r="AR7" t="n">
-        <v>-837</v>
+        <v>-59</v>
       </c>
       <c r="AS7" t="n">
-        <v>-766</v>
+        <v>48</v>
       </c>
       <c r="AT7" t="n">
-        <v>-1027</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>-906</v>
+        <v>-54</v>
       </c>
       <c r="AV7" t="n">
-        <v>-922</v>
+        <v>-240</v>
       </c>
       <c r="AW7" t="n">
-        <v>-943</v>
+        <v>34</v>
       </c>
       <c r="AX7" t="n">
-        <v>-876</v>
+        <v>-167</v>
       </c>
       <c r="AY7" t="n">
-        <v>-751</v>
+        <v>-102</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-1332</v>
+        <v>-562</v>
       </c>
       <c r="BA7" t="n">
-        <v>-48371</v>
+        <v>-14346</v>
       </c>
       <c r="BB7" t="n">
-        <v>-751</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -4647,163 +4647,163 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-988</v>
+        <v>-283</v>
       </c>
       <c r="C8" t="n">
-        <v>-913</v>
+        <v>-242</v>
       </c>
       <c r="D8" t="n">
-        <v>-1090</v>
+        <v>-282</v>
       </c>
       <c r="E8" t="n">
-        <v>-1073</v>
+        <v>-241</v>
       </c>
       <c r="F8" t="n">
-        <v>-763</v>
+        <v>-248</v>
       </c>
       <c r="G8" t="n">
-        <v>-1024</v>
+        <v>-210</v>
       </c>
       <c r="H8" t="n">
-        <v>-913</v>
+        <v>-335</v>
       </c>
       <c r="I8" t="n">
-        <v>-962</v>
+        <v>-217</v>
       </c>
       <c r="J8" t="n">
-        <v>-838</v>
+        <v>-261</v>
       </c>
       <c r="K8" t="n">
-        <v>-1226</v>
+        <v>-294</v>
       </c>
       <c r="L8" t="n">
-        <v>-936</v>
+        <v>-229</v>
       </c>
       <c r="M8" t="n">
-        <v>-1187</v>
+        <v>-220</v>
       </c>
       <c r="N8" t="n">
-        <v>-1078</v>
+        <v>-265</v>
       </c>
       <c r="O8" t="n">
-        <v>-900</v>
+        <v>-145</v>
       </c>
       <c r="P8" t="n">
-        <v>-999</v>
+        <v>-319</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1029</v>
+        <v>-218</v>
       </c>
       <c r="R8" t="n">
-        <v>-1332</v>
+        <v>-190</v>
       </c>
       <c r="S8" t="n">
-        <v>-915</v>
+        <v>-267</v>
       </c>
       <c r="T8" t="n">
-        <v>-1122</v>
+        <v>-262</v>
       </c>
       <c r="U8" t="n">
-        <v>-1140</v>
+        <v>-259</v>
       </c>
       <c r="V8" t="n">
-        <v>-1114</v>
+        <v>-271</v>
       </c>
       <c r="W8" t="n">
-        <v>-855</v>
+        <v>-172</v>
       </c>
       <c r="X8" t="n">
-        <v>-1086</v>
+        <v>-314</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1085</v>
+        <v>-338</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1205</v>
+        <v>-231</v>
       </c>
       <c r="AA8" t="n">
-        <v>-831</v>
+        <v>-262</v>
       </c>
       <c r="AB8" t="n">
-        <v>-856</v>
+        <v>-283</v>
       </c>
       <c r="AC8" t="n">
-        <v>-825</v>
+        <v>-211</v>
       </c>
       <c r="AD8" t="n">
-        <v>-932</v>
+        <v>-343</v>
       </c>
       <c r="AE8" t="n">
-        <v>-845</v>
+        <v>-145</v>
       </c>
       <c r="AF8" t="n">
-        <v>-894</v>
+        <v>-267</v>
       </c>
       <c r="AG8" t="n">
-        <v>-948</v>
+        <v>-296</v>
       </c>
       <c r="AH8" t="n">
-        <v>-1081</v>
+        <v>-278</v>
       </c>
       <c r="AI8" t="n">
-        <v>-1051</v>
+        <v>-180</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-987</v>
+        <v>-282</v>
       </c>
       <c r="AK8" t="n">
-        <v>-1202</v>
+        <v>-179</v>
       </c>
       <c r="AL8" t="n">
-        <v>-828</v>
+        <v>-141</v>
       </c>
       <c r="AM8" t="n">
-        <v>-800</v>
+        <v>-259</v>
       </c>
       <c r="AN8" t="n">
-        <v>-806</v>
+        <v>-347</v>
       </c>
       <c r="AO8" t="n">
-        <v>-811</v>
+        <v>-398</v>
       </c>
       <c r="AP8" t="n">
-        <v>-996</v>
+        <v>-234</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-877</v>
+        <v>-171</v>
       </c>
       <c r="AR8" t="n">
-        <v>-837</v>
+        <v>-223</v>
       </c>
       <c r="AS8" t="n">
-        <v>-766</v>
+        <v>-130</v>
       </c>
       <c r="AT8" t="n">
-        <v>-1027</v>
+        <v>-161</v>
       </c>
       <c r="AU8" t="n">
-        <v>-906</v>
+        <v>-242</v>
       </c>
       <c r="AV8" t="n">
-        <v>-922</v>
+        <v>-320</v>
       </c>
       <c r="AW8" t="n">
-        <v>-943</v>
+        <v>-158</v>
       </c>
       <c r="AX8" t="n">
-        <v>-876</v>
+        <v>-263</v>
       </c>
       <c r="AY8" t="n">
-        <v>-751</v>
+        <v>-242</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-1332</v>
+        <v>-398</v>
       </c>
       <c r="BA8" t="n">
-        <v>-48371</v>
+        <v>-12328</v>
       </c>
       <c r="BB8" t="n">
-        <v>-751</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="9">
@@ -4813,163 +4813,163 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-988</v>
+        <v>-425</v>
       </c>
       <c r="C9" t="n">
-        <v>-913</v>
+        <v>-314</v>
       </c>
       <c r="D9" t="n">
-        <v>-1090</v>
+        <v>-404</v>
       </c>
       <c r="E9" t="n">
-        <v>-1073</v>
+        <v>-349</v>
       </c>
       <c r="F9" t="n">
-        <v>-763</v>
+        <v>-330</v>
       </c>
       <c r="G9" t="n">
-        <v>-1024</v>
+        <v>-256</v>
       </c>
       <c r="H9" t="n">
-        <v>-913</v>
+        <v>-491</v>
       </c>
       <c r="I9" t="n">
-        <v>-962</v>
+        <v>-813</v>
       </c>
       <c r="J9" t="n">
-        <v>-838</v>
+        <v>-335</v>
       </c>
       <c r="K9" t="n">
-        <v>-1226</v>
+        <v>-946</v>
       </c>
       <c r="L9" t="n">
+        <v>-835</v>
+      </c>
+      <c r="M9" t="n">
         <v>-936</v>
       </c>
-      <c r="M9" t="n">
-        <v>-1187</v>
-      </c>
       <c r="N9" t="n">
-        <v>-1078</v>
+        <v>-247</v>
       </c>
       <c r="O9" t="n">
-        <v>-900</v>
+        <v>-733</v>
       </c>
       <c r="P9" t="n">
-        <v>-999</v>
+        <v>-1063</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1029</v>
+        <v>-378</v>
       </c>
       <c r="R9" t="n">
-        <v>-1332</v>
+        <v>-376</v>
       </c>
       <c r="S9" t="n">
-        <v>-915</v>
+        <v>-951</v>
       </c>
       <c r="T9" t="n">
-        <v>-1122</v>
+        <v>-378</v>
       </c>
       <c r="U9" t="n">
-        <v>-1140</v>
+        <v>-949</v>
       </c>
       <c r="V9" t="n">
-        <v>-1114</v>
+        <v>-919</v>
       </c>
       <c r="W9" t="n">
-        <v>-855</v>
+        <v>-824</v>
       </c>
       <c r="X9" t="n">
-        <v>-1086</v>
+        <v>-470</v>
       </c>
       <c r="Y9" t="n">
-        <v>-1085</v>
+        <v>-562</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1205</v>
+        <v>-941</v>
       </c>
       <c r="AA9" t="n">
-        <v>-831</v>
+        <v>-520</v>
       </c>
       <c r="AB9" t="n">
-        <v>-856</v>
+        <v>-395</v>
       </c>
       <c r="AC9" t="n">
-        <v>-825</v>
+        <v>-443</v>
       </c>
       <c r="AD9" t="n">
-        <v>-932</v>
+        <v>-507</v>
       </c>
       <c r="AE9" t="n">
-        <v>-845</v>
+        <v>-321</v>
       </c>
       <c r="AF9" t="n">
-        <v>-894</v>
+        <v>-425</v>
       </c>
       <c r="AG9" t="n">
-        <v>-948</v>
+        <v>-324</v>
       </c>
       <c r="AH9" t="n">
-        <v>-1081</v>
+        <v>-492</v>
       </c>
       <c r="AI9" t="n">
-        <v>-1051</v>
+        <v>-446</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-987</v>
+        <v>-464</v>
       </c>
       <c r="AK9" t="n">
-        <v>-1202</v>
+        <v>-431</v>
       </c>
       <c r="AL9" t="n">
-        <v>-828</v>
+        <v>-365</v>
       </c>
       <c r="AM9" t="n">
-        <v>-800</v>
+        <v>-439</v>
       </c>
       <c r="AN9" t="n">
-        <v>-806</v>
+        <v>-555</v>
       </c>
       <c r="AO9" t="n">
-        <v>-811</v>
+        <v>-636</v>
       </c>
       <c r="AP9" t="n">
-        <v>-996</v>
+        <v>-444</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-877</v>
+        <v>-273</v>
       </c>
       <c r="AR9" t="n">
-        <v>-837</v>
+        <v>-333</v>
       </c>
       <c r="AS9" t="n">
-        <v>-766</v>
+        <v>-256</v>
       </c>
       <c r="AT9" t="n">
-        <v>-1027</v>
+        <v>-281</v>
       </c>
       <c r="AU9" t="n">
-        <v>-906</v>
+        <v>-320</v>
       </c>
       <c r="AV9" t="n">
-        <v>-922</v>
+        <v>-532</v>
       </c>
       <c r="AW9" t="n">
-        <v>-943</v>
+        <v>-238</v>
       </c>
       <c r="AX9" t="n">
-        <v>-876</v>
+        <v>-443</v>
       </c>
       <c r="AY9" t="n">
-        <v>-751</v>
+        <v>-396</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-1332</v>
+        <v>-1063</v>
       </c>
       <c r="BA9" t="n">
-        <v>-48371</v>
+        <v>-25504</v>
       </c>
       <c r="BB9" t="n">
-        <v>-751</v>
+        <v>-238</v>
       </c>
     </row>
     <row r="10">
@@ -4979,163 +4979,163 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-988</v>
+        <v>-507</v>
       </c>
       <c r="C10" t="n">
-        <v>-913</v>
+        <v>-482</v>
       </c>
       <c r="D10" t="n">
-        <v>-1090</v>
+        <v>-506</v>
       </c>
       <c r="E10" t="n">
-        <v>-1073</v>
+        <v>-517</v>
       </c>
       <c r="F10" t="n">
-        <v>-763</v>
+        <v>-480</v>
       </c>
       <c r="G10" t="n">
-        <v>-1024</v>
+        <v>-496</v>
       </c>
       <c r="H10" t="n">
-        <v>-913</v>
+        <v>-551</v>
       </c>
       <c r="I10" t="n">
-        <v>-962</v>
+        <v>-567</v>
       </c>
       <c r="J10" t="n">
-        <v>-838</v>
+        <v>-521</v>
       </c>
       <c r="K10" t="n">
-        <v>-1226</v>
+        <v>-630</v>
       </c>
       <c r="L10" t="n">
-        <v>-936</v>
+        <v>-567</v>
       </c>
       <c r="M10" t="n">
-        <v>-1187</v>
+        <v>-590</v>
       </c>
       <c r="N10" t="n">
-        <v>-1078</v>
+        <v>-533</v>
       </c>
       <c r="O10" t="n">
-        <v>-900</v>
+        <v>-475</v>
       </c>
       <c r="P10" t="n">
-        <v>-999</v>
+        <v>-691</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1029</v>
+        <v>-488</v>
       </c>
       <c r="R10" t="n">
-        <v>-1332</v>
+        <v>-464</v>
       </c>
       <c r="S10" t="n">
-        <v>-915</v>
+        <v>-623</v>
       </c>
       <c r="T10" t="n">
-        <v>-1122</v>
+        <v>-468</v>
       </c>
       <c r="U10" t="n">
-        <v>-1140</v>
+        <v>-589</v>
       </c>
       <c r="V10" t="n">
-        <v>-1114</v>
+        <v>-667</v>
       </c>
       <c r="W10" t="n">
-        <v>-855</v>
+        <v>-556</v>
       </c>
       <c r="X10" t="n">
-        <v>-1086</v>
+        <v>-592</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1085</v>
+        <v>-676</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1205</v>
+        <v>-593</v>
       </c>
       <c r="AA10" t="n">
-        <v>-831</v>
+        <v>-684</v>
       </c>
       <c r="AB10" t="n">
-        <v>-856</v>
+        <v>-691</v>
       </c>
       <c r="AC10" t="n">
-        <v>-825</v>
+        <v>-677</v>
       </c>
       <c r="AD10" t="n">
-        <v>-932</v>
+        <v>-789</v>
       </c>
       <c r="AE10" t="n">
-        <v>-845</v>
+        <v>-591</v>
       </c>
       <c r="AF10" t="n">
-        <v>-894</v>
+        <v>-753</v>
       </c>
       <c r="AG10" t="n">
-        <v>-948</v>
+        <v>-744</v>
       </c>
       <c r="AH10" t="n">
-        <v>-1081</v>
+        <v>-704</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1051</v>
+        <v>-588</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-987</v>
+        <v>-710</v>
       </c>
       <c r="AK10" t="n">
-        <v>-1202</v>
+        <v>-609</v>
       </c>
       <c r="AL10" t="n">
-        <v>-828</v>
+        <v>-645</v>
       </c>
       <c r="AM10" t="n">
-        <v>-800</v>
+        <v>-697</v>
       </c>
       <c r="AN10" t="n">
-        <v>-806</v>
+        <v>-743</v>
       </c>
       <c r="AO10" t="n">
-        <v>-811</v>
+        <v>-830</v>
       </c>
       <c r="AP10" t="n">
-        <v>-996</v>
+        <v>-698</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-877</v>
+        <v>-611</v>
       </c>
       <c r="AR10" t="n">
-        <v>-837</v>
+        <v>-663</v>
       </c>
       <c r="AS10" t="n">
-        <v>-766</v>
+        <v>-582</v>
       </c>
       <c r="AT10" t="n">
-        <v>-1027</v>
+        <v>-613</v>
       </c>
       <c r="AU10" t="n">
-        <v>-906</v>
+        <v>-698</v>
       </c>
       <c r="AV10" t="n">
-        <v>-922</v>
+        <v>-694</v>
       </c>
       <c r="AW10" t="n">
-        <v>-943</v>
+        <v>-664</v>
       </c>
       <c r="AX10" t="n">
-        <v>-876</v>
+        <v>-723</v>
       </c>
       <c r="AY10" t="n">
-        <v>-751</v>
+        <v>-684</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-1332</v>
+        <v>-830</v>
       </c>
       <c r="BA10" t="n">
-        <v>-48371</v>
+        <v>-30914</v>
       </c>
       <c r="BB10" t="n">
-        <v>-751</v>
+        <v>-464</v>
       </c>
     </row>
     <row r="11">
@@ -5145,163 +5145,163 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-988</v>
+        <v>-425</v>
       </c>
       <c r="C11" t="n">
-        <v>-913</v>
+        <v>-376</v>
       </c>
       <c r="D11" t="n">
-        <v>-1090</v>
+        <v>-404</v>
       </c>
       <c r="E11" t="n">
-        <v>-1073</v>
+        <v>-411</v>
       </c>
       <c r="F11" t="n">
-        <v>-763</v>
+        <v>-382</v>
       </c>
       <c r="G11" t="n">
-        <v>-1024</v>
+        <v>-384</v>
       </c>
       <c r="H11" t="n">
-        <v>-913</v>
+        <v>-485</v>
       </c>
       <c r="I11" t="n">
-        <v>-962</v>
+        <v>-631</v>
       </c>
       <c r="J11" t="n">
-        <v>-838</v>
+        <v>-405</v>
       </c>
       <c r="K11" t="n">
-        <v>-1226</v>
+        <v>-702</v>
       </c>
       <c r="L11" t="n">
-        <v>-936</v>
+        <v>-645</v>
       </c>
       <c r="M11" t="n">
-        <v>-1187</v>
+        <v>-694</v>
       </c>
       <c r="N11" t="n">
-        <v>-1078</v>
+        <v>-399</v>
       </c>
       <c r="O11" t="n">
-        <v>-900</v>
+        <v>-539</v>
       </c>
       <c r="P11" t="n">
-        <v>-999</v>
+        <v>-785</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1029</v>
+        <v>-408</v>
       </c>
       <c r="R11" t="n">
-        <v>-1332</v>
+        <v>-408</v>
       </c>
       <c r="S11" t="n">
-        <v>-915</v>
+        <v>-687</v>
       </c>
       <c r="T11" t="n">
-        <v>-1122</v>
+        <v>-402</v>
       </c>
       <c r="U11" t="n">
-        <v>-1140</v>
+        <v>-697</v>
       </c>
       <c r="V11" t="n">
-        <v>-1114</v>
+        <v>-739</v>
       </c>
       <c r="W11" t="n">
-        <v>-855</v>
+        <v>-620</v>
       </c>
       <c r="X11" t="n">
-        <v>-1086</v>
+        <v>-498</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1085</v>
+        <v>-588</v>
       </c>
       <c r="Z11" t="n">
-        <v>-1205</v>
+        <v>-715</v>
       </c>
       <c r="AA11" t="n">
-        <v>-831</v>
+        <v>-658</v>
       </c>
       <c r="AB11" t="n">
-        <v>-856</v>
+        <v>-633</v>
       </c>
       <c r="AC11" t="n">
-        <v>-825</v>
+        <v>-643</v>
       </c>
       <c r="AD11" t="n">
-        <v>-932</v>
+        <v>-731</v>
       </c>
       <c r="AE11" t="n">
-        <v>-845</v>
+        <v>-547</v>
       </c>
       <c r="AF11" t="n">
-        <v>-894</v>
+        <v>-687</v>
       </c>
       <c r="AG11" t="n">
-        <v>-948</v>
+        <v>-668</v>
       </c>
       <c r="AH11" t="n">
-        <v>-1081</v>
+        <v>-668</v>
       </c>
       <c r="AI11" t="n">
-        <v>-1051</v>
+        <v>-572</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-987</v>
+        <v>-654</v>
       </c>
       <c r="AK11" t="n">
-        <v>-1202</v>
+        <v>-579</v>
       </c>
       <c r="AL11" t="n">
-        <v>-828</v>
+        <v>-593</v>
       </c>
       <c r="AM11" t="n">
-        <v>-800</v>
+        <v>-661</v>
       </c>
       <c r="AN11" t="n">
-        <v>-806</v>
+        <v>-717</v>
       </c>
       <c r="AO11" t="n">
-        <v>-811</v>
+        <v>-786</v>
       </c>
       <c r="AP11" t="n">
-        <v>-996</v>
+        <v>-654</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-877</v>
+        <v>-557</v>
       </c>
       <c r="AR11" t="n">
-        <v>-837</v>
+        <v>-605</v>
       </c>
       <c r="AS11" t="n">
-        <v>-766</v>
+        <v>-538</v>
       </c>
       <c r="AT11" t="n">
-        <v>-1027</v>
+        <v>-553</v>
       </c>
       <c r="AU11" t="n">
-        <v>-906</v>
+        <v>-622</v>
       </c>
       <c r="AV11" t="n">
-        <v>-922</v>
+        <v>-684</v>
       </c>
       <c r="AW11" t="n">
-        <v>-943</v>
+        <v>-574</v>
       </c>
       <c r="AX11" t="n">
-        <v>-876</v>
+        <v>-667</v>
       </c>
       <c r="AY11" t="n">
-        <v>-751</v>
+        <v>-640</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-1332</v>
+        <v>-786</v>
       </c>
       <c r="BA11" t="n">
-        <v>-48371</v>
+        <v>-29320</v>
       </c>
       <c r="BB11" t="n">
-        <v>-751</v>
+        <v>-376</v>
       </c>
     </row>
     <row r="12">
@@ -5311,163 +5311,163 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-988</v>
+        <v>-531</v>
       </c>
       <c r="C12" t="n">
-        <v>-913</v>
+        <v>-412</v>
       </c>
       <c r="D12" t="n">
-        <v>-1090</v>
+        <v>-504</v>
       </c>
       <c r="E12" t="n">
-        <v>-1073</v>
+        <v>-425</v>
       </c>
       <c r="F12" t="n">
-        <v>-763</v>
+        <v>-424</v>
       </c>
       <c r="G12" t="n">
-        <v>-1024</v>
+        <v>-364</v>
       </c>
       <c r="H12" t="n">
-        <v>-913</v>
+        <v>-549</v>
       </c>
       <c r="I12" t="n">
-        <v>-962</v>
+        <v>-381</v>
       </c>
       <c r="J12" t="n">
-        <v>-838</v>
+        <v>-437</v>
       </c>
       <c r="K12" t="n">
-        <v>-1226</v>
+        <v>-506</v>
       </c>
       <c r="L12" t="n">
-        <v>-936</v>
+        <v>-375</v>
       </c>
       <c r="M12" t="n">
-        <v>-1187</v>
+        <v>-428</v>
       </c>
       <c r="N12" t="n">
-        <v>-1078</v>
+        <v>-399</v>
       </c>
       <c r="O12" t="n">
-        <v>-900</v>
+        <v>-323</v>
       </c>
       <c r="P12" t="n">
-        <v>-999</v>
+        <v>-559</v>
       </c>
       <c r="Q12" t="n">
-        <v>-1029</v>
+        <v>-422</v>
       </c>
       <c r="R12" t="n">
-        <v>-1332</v>
+        <v>-378</v>
       </c>
       <c r="S12" t="n">
-        <v>-915</v>
+        <v>-491</v>
       </c>
       <c r="T12" t="n">
-        <v>-1122</v>
+        <v>-426</v>
       </c>
       <c r="U12" t="n">
-        <v>-1140</v>
+        <v>-471</v>
       </c>
       <c r="V12" t="n">
-        <v>-1114</v>
+        <v>-439</v>
       </c>
       <c r="W12" t="n">
-        <v>-855</v>
+        <v>-342</v>
       </c>
       <c r="X12" t="n">
-        <v>-1086</v>
+        <v>-544</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1085</v>
+        <v>-562</v>
       </c>
       <c r="Z12" t="n">
-        <v>-1205</v>
+        <v>-415</v>
       </c>
       <c r="AA12" t="n">
-        <v>-831</v>
+        <v>-250</v>
       </c>
       <c r="AB12" t="n">
-        <v>-856</v>
+        <v>-151</v>
       </c>
       <c r="AC12" t="n">
-        <v>-825</v>
+        <v>-125</v>
       </c>
       <c r="AD12" t="n">
-        <v>-932</v>
+        <v>-251</v>
       </c>
       <c r="AE12" t="n">
-        <v>-845</v>
+        <v>-31</v>
       </c>
       <c r="AF12" t="n">
-        <v>-894</v>
+        <v>-143</v>
       </c>
       <c r="AG12" t="n">
-        <v>-948</v>
+        <v>-78</v>
       </c>
       <c r="AH12" t="n">
-        <v>-1081</v>
+        <v>-216</v>
       </c>
       <c r="AI12" t="n">
-        <v>-1051</v>
+        <v>-144</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-987</v>
+        <v>-192</v>
       </c>
       <c r="AK12" t="n">
-        <v>-1202</v>
+        <v>-123</v>
       </c>
       <c r="AL12" t="n">
-        <v>-828</v>
+        <v>-31</v>
       </c>
       <c r="AM12" t="n">
-        <v>-800</v>
+        <v>-153</v>
       </c>
       <c r="AN12" t="n">
-        <v>-806</v>
+        <v>-279</v>
       </c>
       <c r="AO12" t="n">
-        <v>-811</v>
+        <v>-372</v>
       </c>
       <c r="AP12" t="n">
-        <v>-996</v>
+        <v>-168</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-877</v>
+        <v>-7</v>
       </c>
       <c r="AR12" t="n">
-        <v>-837</v>
+        <v>-59</v>
       </c>
       <c r="AS12" t="n">
-        <v>-766</v>
+        <v>48</v>
       </c>
       <c r="AT12" t="n">
-        <v>-1027</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>-906</v>
+        <v>-54</v>
       </c>
       <c r="AV12" t="n">
-        <v>-922</v>
+        <v>-240</v>
       </c>
       <c r="AW12" t="n">
-        <v>-943</v>
+        <v>34</v>
       </c>
       <c r="AX12" t="n">
-        <v>-876</v>
+        <v>-167</v>
       </c>
       <c r="AY12" t="n">
-        <v>-751</v>
+        <v>-102</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-1332</v>
+        <v>-562</v>
       </c>
       <c r="BA12" t="n">
-        <v>-48371</v>
+        <v>-14346</v>
       </c>
       <c r="BB12" t="n">
-        <v>-751</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -5477,163 +5477,163 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-778</v>
+        <v>-531</v>
       </c>
       <c r="C13" t="n">
-        <v>-715</v>
+        <v>-412</v>
       </c>
       <c r="D13" t="n">
-        <v>-1096</v>
+        <v>-504</v>
       </c>
       <c r="E13" t="n">
-        <v>-873</v>
+        <v>-425</v>
       </c>
       <c r="F13" t="n">
-        <v>-563</v>
+        <v>-424</v>
       </c>
       <c r="G13" t="n">
-        <v>-1024</v>
+        <v>-364</v>
       </c>
       <c r="H13" t="n">
-        <v>-709</v>
+        <v>-549</v>
       </c>
       <c r="I13" t="n">
-        <v>-760</v>
+        <v>-381</v>
       </c>
       <c r="J13" t="n">
-        <v>-636</v>
+        <v>-437</v>
       </c>
       <c r="K13" t="n">
-        <v>-1232</v>
+        <v>-506</v>
       </c>
       <c r="L13" t="n">
-        <v>-748</v>
+        <v>-375</v>
       </c>
       <c r="M13" t="n">
-        <v>-1189</v>
+        <v>-428</v>
       </c>
       <c r="N13" t="n">
-        <v>-872</v>
+        <v>-399</v>
       </c>
       <c r="O13" t="n">
-        <v>-698</v>
+        <v>-323</v>
       </c>
       <c r="P13" t="n">
-        <v>-791</v>
+        <v>-559</v>
       </c>
       <c r="Q13" t="n">
-        <v>-827</v>
+        <v>-422</v>
       </c>
       <c r="R13" t="n">
-        <v>-1336</v>
+        <v>-378</v>
       </c>
       <c r="S13" t="n">
-        <v>-725</v>
+        <v>-491</v>
       </c>
       <c r="T13" t="n">
-        <v>-1108</v>
+        <v>-426</v>
       </c>
       <c r="U13" t="n">
-        <v>-1144</v>
+        <v>-471</v>
       </c>
       <c r="V13" t="n">
-        <v>-910</v>
+        <v>-439</v>
       </c>
       <c r="W13" t="n">
-        <v>-651</v>
+        <v>-342</v>
       </c>
       <c r="X13" t="n">
-        <v>-890</v>
+        <v>-544</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1083</v>
+        <v>-562</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1227</v>
+        <v>-415</v>
       </c>
       <c r="AA13" t="n">
-        <v>-853</v>
+        <v>-250</v>
       </c>
       <c r="AB13" t="n">
-        <v>-862</v>
+        <v>-151</v>
       </c>
       <c r="AC13" t="n">
-        <v>-833</v>
+        <v>-125</v>
       </c>
       <c r="AD13" t="n">
-        <v>-932</v>
+        <v>-251</v>
       </c>
       <c r="AE13" t="n">
-        <v>-845</v>
+        <v>-31</v>
       </c>
       <c r="AF13" t="n">
-        <v>-902</v>
+        <v>-143</v>
       </c>
       <c r="AG13" t="n">
-        <v>-938</v>
+        <v>-78</v>
       </c>
       <c r="AH13" t="n">
-        <v>-1065</v>
+        <v>-216</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1051</v>
+        <v>-144</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-985</v>
+        <v>-192</v>
       </c>
       <c r="AK13" t="n">
-        <v>-1186</v>
+        <v>-123</v>
       </c>
       <c r="AL13" t="n">
-        <v>-830</v>
+        <v>-31</v>
       </c>
       <c r="AM13" t="n">
-        <v>-804</v>
+        <v>-153</v>
       </c>
       <c r="AN13" t="n">
-        <v>-812</v>
+        <v>-279</v>
       </c>
       <c r="AO13" t="n">
-        <v>-819</v>
+        <v>-372</v>
       </c>
       <c r="AP13" t="n">
-        <v>-986</v>
+        <v>-168</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-877</v>
+        <v>-7</v>
       </c>
       <c r="AR13" t="n">
-        <v>-839</v>
+        <v>-59</v>
       </c>
       <c r="AS13" t="n">
-        <v>-760</v>
+        <v>48</v>
       </c>
       <c r="AT13" t="n">
-        <v>-1037</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
-        <v>-906</v>
+        <v>-54</v>
       </c>
       <c r="AV13" t="n">
-        <v>-922</v>
+        <v>-240</v>
       </c>
       <c r="AW13" t="n">
-        <v>-961</v>
+        <v>34</v>
       </c>
       <c r="AX13" t="n">
-        <v>-870</v>
+        <v>-167</v>
       </c>
       <c r="AY13" t="n">
-        <v>-749</v>
+        <v>-102</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-1336</v>
+        <v>-562</v>
       </c>
       <c r="BA13" t="n">
-        <v>-45209</v>
+        <v>-14346</v>
       </c>
       <c r="BB13" t="n">
-        <v>-563</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -5643,163 +5643,163 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-778</v>
+        <v>-599</v>
       </c>
       <c r="C14" t="n">
-        <v>-715</v>
+        <v>-444</v>
       </c>
       <c r="D14" t="n">
-        <v>-1096</v>
+        <v>-604</v>
       </c>
       <c r="E14" t="n">
-        <v>-873</v>
+        <v>-487</v>
       </c>
       <c r="F14" t="n">
-        <v>-563</v>
+        <v>-496</v>
       </c>
       <c r="G14" t="n">
-        <v>-1024</v>
+        <v>-428</v>
       </c>
       <c r="H14" t="n">
-        <v>-709</v>
+        <v>-645</v>
       </c>
       <c r="I14" t="n">
-        <v>-760</v>
+        <v>-313</v>
       </c>
       <c r="J14" t="n">
-        <v>-636</v>
+        <v>-543</v>
       </c>
       <c r="K14" t="n">
-        <v>-1232</v>
+        <v>-500</v>
       </c>
       <c r="L14" t="n">
-        <v>-748</v>
+        <v>-297</v>
       </c>
       <c r="M14" t="n">
-        <v>-1189</v>
+        <v>-346</v>
       </c>
       <c r="N14" t="n">
-        <v>-872</v>
+        <v>-499</v>
       </c>
       <c r="O14" t="n">
-        <v>-698</v>
+        <v>-225</v>
       </c>
       <c r="P14" t="n">
-        <v>-791</v>
+        <v>-533</v>
       </c>
       <c r="Q14" t="n">
-        <v>-827</v>
+        <v>-464</v>
       </c>
       <c r="R14" t="n">
-        <v>-1336</v>
+        <v>-368</v>
       </c>
       <c r="S14" t="n">
-        <v>-725</v>
+        <v>-493</v>
       </c>
       <c r="T14" t="n">
-        <v>-1108</v>
+        <v>-482</v>
       </c>
       <c r="U14" t="n">
-        <v>-1144</v>
+        <v>-379</v>
       </c>
       <c r="V14" t="n">
-        <v>-910</v>
+        <v>-389</v>
       </c>
       <c r="W14" t="n">
-        <v>-651</v>
+        <v>-248</v>
       </c>
       <c r="X14" t="n">
-        <v>-890</v>
+        <v>-652</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1083</v>
+        <v>-622</v>
       </c>
       <c r="Z14" t="n">
-        <v>-1227</v>
+        <v>-331</v>
       </c>
       <c r="AA14" t="n">
-        <v>-853</v>
+        <v>-420</v>
       </c>
       <c r="AB14" t="n">
-        <v>-862</v>
+        <v>-383</v>
       </c>
       <c r="AC14" t="n">
-        <v>-833</v>
+        <v>-341</v>
       </c>
       <c r="AD14" t="n">
-        <v>-932</v>
+        <v>-489</v>
       </c>
       <c r="AE14" t="n">
-        <v>-845</v>
+        <v>-223</v>
       </c>
       <c r="AF14" t="n">
-        <v>-902</v>
+        <v>-383</v>
       </c>
       <c r="AG14" t="n">
-        <v>-938</v>
+        <v>-356</v>
       </c>
       <c r="AH14" t="n">
-        <v>-1065</v>
+        <v>-422</v>
       </c>
       <c r="AI14" t="n">
-        <v>-1051</v>
+        <v>-324</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-985</v>
+        <v>-428</v>
       </c>
       <c r="AK14" t="n">
-        <v>-1186</v>
+        <v>-291</v>
       </c>
       <c r="AL14" t="n">
-        <v>-830</v>
+        <v>-231</v>
       </c>
       <c r="AM14" t="n">
-        <v>-804</v>
+        <v>-371</v>
       </c>
       <c r="AN14" t="n">
-        <v>-812</v>
+        <v>-497</v>
       </c>
       <c r="AO14" t="n">
-        <v>-819</v>
+        <v>-586</v>
       </c>
       <c r="AP14" t="n">
-        <v>-986</v>
+        <v>-350</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-877</v>
+        <v>-259</v>
       </c>
       <c r="AR14" t="n">
-        <v>-839</v>
+        <v>-319</v>
       </c>
       <c r="AS14" t="n">
-        <v>-760</v>
+        <v>-184</v>
       </c>
       <c r="AT14" t="n">
-        <v>-1037</v>
+        <v>-225</v>
       </c>
       <c r="AU14" t="n">
-        <v>-906</v>
+        <v>-330</v>
       </c>
       <c r="AV14" t="n">
-        <v>-922</v>
+        <v>-480</v>
       </c>
       <c r="AW14" t="n">
-        <v>-961</v>
+        <v>-218</v>
       </c>
       <c r="AX14" t="n">
-        <v>-870</v>
+        <v>-389</v>
       </c>
       <c r="AY14" t="n">
-        <v>-749</v>
+        <v>-350</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-1336</v>
+        <v>-652</v>
       </c>
       <c r="BA14" t="n">
-        <v>-45209</v>
+        <v>-20236</v>
       </c>
       <c r="BB14" t="n">
-        <v>-563</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="15">
@@ -5809,163 +5809,163 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-778</v>
+        <v>-625</v>
       </c>
       <c r="C15" t="n">
-        <v>-715</v>
+        <v>-454</v>
       </c>
       <c r="D15" t="n">
-        <v>-1096</v>
+        <v>-620</v>
       </c>
       <c r="E15" t="n">
-        <v>-873</v>
+        <v>-509</v>
       </c>
       <c r="F15" t="n">
+        <v>-510</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-444</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-655</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-477</v>
+      </c>
+      <c r="J15" t="n">
         <v>-563</v>
       </c>
-      <c r="G15" t="n">
-        <v>-1024</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-709</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-760</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-636</v>
-      </c>
       <c r="K15" t="n">
-        <v>-1232</v>
+        <v>-678</v>
       </c>
       <c r="L15" t="n">
-        <v>-748</v>
+        <v>-473</v>
       </c>
       <c r="M15" t="n">
-        <v>-1189</v>
+        <v>-536</v>
       </c>
       <c r="N15" t="n">
-        <v>-872</v>
+        <v>-515</v>
       </c>
       <c r="O15" t="n">
-        <v>-698</v>
+        <v>-399</v>
       </c>
       <c r="P15" t="n">
-        <v>-791</v>
+        <v>-729</v>
       </c>
       <c r="Q15" t="n">
-        <v>-827</v>
+        <v>-480</v>
       </c>
       <c r="R15" t="n">
-        <v>-1336</v>
+        <v>-406</v>
       </c>
       <c r="S15" t="n">
-        <v>-725</v>
+        <v>-659</v>
       </c>
       <c r="T15" t="n">
-        <v>-1108</v>
+        <v>-512</v>
       </c>
       <c r="U15" t="n">
-        <v>-1144</v>
+        <v>-569</v>
       </c>
       <c r="V15" t="n">
-        <v>-910</v>
+        <v>-577</v>
       </c>
       <c r="W15" t="n">
-        <v>-651</v>
+        <v>-434</v>
       </c>
       <c r="X15" t="n">
-        <v>-890</v>
+        <v>-674</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1083</v>
+        <v>-676</v>
       </c>
       <c r="Z15" t="n">
-        <v>-1227</v>
+        <v>-507</v>
       </c>
       <c r="AA15" t="n">
-        <v>-853</v>
+        <v>-430</v>
       </c>
       <c r="AB15" t="n">
-        <v>-862</v>
+        <v>-331</v>
       </c>
       <c r="AC15" t="n">
-        <v>-833</v>
+        <v>-309</v>
       </c>
       <c r="AD15" t="n">
-        <v>-932</v>
+        <v>-457</v>
       </c>
       <c r="AE15" t="n">
-        <v>-845</v>
+        <v>-199</v>
       </c>
       <c r="AF15" t="n">
-        <v>-902</v>
+        <v>-333</v>
       </c>
       <c r="AG15" t="n">
-        <v>-938</v>
+        <v>-264</v>
       </c>
       <c r="AH15" t="n">
-        <v>-1065</v>
+        <v>-402</v>
       </c>
       <c r="AI15" t="n">
-        <v>-1051</v>
+        <v>-312</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-985</v>
+        <v>-412</v>
       </c>
       <c r="AK15" t="n">
-        <v>-1186</v>
+        <v>-293</v>
       </c>
       <c r="AL15" t="n">
-        <v>-830</v>
+        <v>-193</v>
       </c>
       <c r="AM15" t="n">
-        <v>-804</v>
+        <v>-341</v>
       </c>
       <c r="AN15" t="n">
-        <v>-812</v>
+        <v>-485</v>
       </c>
       <c r="AO15" t="n">
-        <v>-819</v>
+        <v>-596</v>
       </c>
       <c r="AP15" t="n">
-        <v>-986</v>
+        <v>-332</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-877</v>
+        <v>-185</v>
       </c>
       <c r="AR15" t="n">
-        <v>-839</v>
+        <v>-255</v>
       </c>
       <c r="AS15" t="n">
-        <v>-760</v>
+        <v>-120</v>
       </c>
       <c r="AT15" t="n">
-        <v>-1037</v>
+        <v>-161</v>
       </c>
       <c r="AU15" t="n">
-        <v>-906</v>
+        <v>-246</v>
       </c>
       <c r="AV15" t="n">
-        <v>-922</v>
+        <v>-446</v>
       </c>
       <c r="AW15" t="n">
-        <v>-961</v>
+        <v>-146</v>
       </c>
       <c r="AX15" t="n">
-        <v>-870</v>
+        <v>-365</v>
       </c>
       <c r="AY15" t="n">
-        <v>-749</v>
+        <v>-300</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-1336</v>
+        <v>-729</v>
       </c>
       <c r="BA15" t="n">
-        <v>-45209</v>
+        <v>-21594</v>
       </c>
       <c r="BB15" t="n">
-        <v>-563</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="16">
@@ -5975,163 +5975,163 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-778</v>
+        <v>-531</v>
       </c>
       <c r="C16" t="n">
-        <v>-715</v>
+        <v>-412</v>
       </c>
       <c r="D16" t="n">
-        <v>-1096</v>
+        <v>-504</v>
       </c>
       <c r="E16" t="n">
-        <v>-873</v>
+        <v>-425</v>
       </c>
       <c r="F16" t="n">
-        <v>-563</v>
+        <v>-424</v>
       </c>
       <c r="G16" t="n">
-        <v>-1024</v>
+        <v>-364</v>
       </c>
       <c r="H16" t="n">
-        <v>-709</v>
+        <v>-549</v>
       </c>
       <c r="I16" t="n">
-        <v>-760</v>
+        <v>-381</v>
       </c>
       <c r="J16" t="n">
-        <v>-636</v>
+        <v>-437</v>
       </c>
       <c r="K16" t="n">
-        <v>-1232</v>
+        <v>-506</v>
       </c>
       <c r="L16" t="n">
-        <v>-748</v>
+        <v>-375</v>
       </c>
       <c r="M16" t="n">
-        <v>-1189</v>
+        <v>-428</v>
       </c>
       <c r="N16" t="n">
-        <v>-872</v>
+        <v>-399</v>
       </c>
       <c r="O16" t="n">
-        <v>-698</v>
+        <v>-323</v>
       </c>
       <c r="P16" t="n">
-        <v>-791</v>
+        <v>-559</v>
       </c>
       <c r="Q16" t="n">
-        <v>-827</v>
+        <v>-422</v>
       </c>
       <c r="R16" t="n">
-        <v>-1336</v>
+        <v>-378</v>
       </c>
       <c r="S16" t="n">
-        <v>-725</v>
+        <v>-491</v>
       </c>
       <c r="T16" t="n">
-        <v>-1108</v>
+        <v>-426</v>
       </c>
       <c r="U16" t="n">
-        <v>-1144</v>
+        <v>-471</v>
       </c>
       <c r="V16" t="n">
-        <v>-910</v>
+        <v>-439</v>
       </c>
       <c r="W16" t="n">
-        <v>-651</v>
+        <v>-342</v>
       </c>
       <c r="X16" t="n">
-        <v>-890</v>
+        <v>-544</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1083</v>
+        <v>-562</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1227</v>
+        <v>-415</v>
       </c>
       <c r="AA16" t="n">
-        <v>-853</v>
+        <v>-250</v>
       </c>
       <c r="AB16" t="n">
-        <v>-862</v>
+        <v>-151</v>
       </c>
       <c r="AC16" t="n">
-        <v>-833</v>
+        <v>-125</v>
       </c>
       <c r="AD16" t="n">
-        <v>-932</v>
+        <v>-251</v>
       </c>
       <c r="AE16" t="n">
-        <v>-845</v>
+        <v>-31</v>
       </c>
       <c r="AF16" t="n">
-        <v>-902</v>
+        <v>-143</v>
       </c>
       <c r="AG16" t="n">
-        <v>-938</v>
+        <v>-78</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1065</v>
+        <v>-216</v>
       </c>
       <c r="AI16" t="n">
-        <v>-1051</v>
+        <v>-144</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-985</v>
+        <v>-192</v>
       </c>
       <c r="AK16" t="n">
-        <v>-1186</v>
+        <v>-123</v>
       </c>
       <c r="AL16" t="n">
-        <v>-830</v>
+        <v>-31</v>
       </c>
       <c r="AM16" t="n">
-        <v>-804</v>
+        <v>-153</v>
       </c>
       <c r="AN16" t="n">
-        <v>-812</v>
+        <v>-279</v>
       </c>
       <c r="AO16" t="n">
-        <v>-819</v>
+        <v>-372</v>
       </c>
       <c r="AP16" t="n">
-        <v>-986</v>
+        <v>-168</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-877</v>
+        <v>-7</v>
       </c>
       <c r="AR16" t="n">
-        <v>-839</v>
+        <v>-59</v>
       </c>
       <c r="AS16" t="n">
-        <v>-760</v>
+        <v>48</v>
       </c>
       <c r="AT16" t="n">
-        <v>-1037</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>-906</v>
+        <v>-54</v>
       </c>
       <c r="AV16" t="n">
-        <v>-922</v>
+        <v>-240</v>
       </c>
       <c r="AW16" t="n">
-        <v>-961</v>
+        <v>34</v>
       </c>
       <c r="AX16" t="n">
-        <v>-870</v>
+        <v>-167</v>
       </c>
       <c r="AY16" t="n">
-        <v>-749</v>
+        <v>-102</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-1336</v>
+        <v>-562</v>
       </c>
       <c r="BA16" t="n">
-        <v>-45209</v>
+        <v>-14346</v>
       </c>
       <c r="BB16" t="n">
-        <v>-563</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -6141,163 +6141,163 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-778</v>
+        <v>-531</v>
       </c>
       <c r="C17" t="n">
-        <v>-715</v>
+        <v>-412</v>
       </c>
       <c r="D17" t="n">
-        <v>-1096</v>
+        <v>-504</v>
       </c>
       <c r="E17" t="n">
-        <v>-873</v>
+        <v>-425</v>
       </c>
       <c r="F17" t="n">
-        <v>-563</v>
+        <v>-424</v>
       </c>
       <c r="G17" t="n">
-        <v>-1024</v>
+        <v>-364</v>
       </c>
       <c r="H17" t="n">
-        <v>-709</v>
+        <v>-549</v>
       </c>
       <c r="I17" t="n">
-        <v>-760</v>
+        <v>-381</v>
       </c>
       <c r="J17" t="n">
-        <v>-636</v>
+        <v>-437</v>
       </c>
       <c r="K17" t="n">
-        <v>-1232</v>
+        <v>-506</v>
       </c>
       <c r="L17" t="n">
-        <v>-748</v>
+        <v>-375</v>
       </c>
       <c r="M17" t="n">
-        <v>-1189</v>
+        <v>-428</v>
       </c>
       <c r="N17" t="n">
-        <v>-872</v>
+        <v>-399</v>
       </c>
       <c r="O17" t="n">
-        <v>-698</v>
+        <v>-323</v>
       </c>
       <c r="P17" t="n">
-        <v>-791</v>
+        <v>-559</v>
       </c>
       <c r="Q17" t="n">
-        <v>-827</v>
+        <v>-422</v>
       </c>
       <c r="R17" t="n">
-        <v>-1336</v>
+        <v>-378</v>
       </c>
       <c r="S17" t="n">
-        <v>-725</v>
+        <v>-491</v>
       </c>
       <c r="T17" t="n">
-        <v>-1108</v>
+        <v>-426</v>
       </c>
       <c r="U17" t="n">
-        <v>-1144</v>
+        <v>-471</v>
       </c>
       <c r="V17" t="n">
-        <v>-910</v>
+        <v>-439</v>
       </c>
       <c r="W17" t="n">
-        <v>-651</v>
+        <v>-342</v>
       </c>
       <c r="X17" t="n">
-        <v>-890</v>
+        <v>-544</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1083</v>
+        <v>-562</v>
       </c>
       <c r="Z17" t="n">
-        <v>-1227</v>
+        <v>-415</v>
       </c>
       <c r="AA17" t="n">
-        <v>-853</v>
+        <v>-250</v>
       </c>
       <c r="AB17" t="n">
-        <v>-862</v>
+        <v>-151</v>
       </c>
       <c r="AC17" t="n">
-        <v>-833</v>
+        <v>-125</v>
       </c>
       <c r="AD17" t="n">
-        <v>-932</v>
+        <v>-251</v>
       </c>
       <c r="AE17" t="n">
-        <v>-845</v>
+        <v>-31</v>
       </c>
       <c r="AF17" t="n">
-        <v>-902</v>
+        <v>-143</v>
       </c>
       <c r="AG17" t="n">
-        <v>-938</v>
+        <v>-78</v>
       </c>
       <c r="AH17" t="n">
-        <v>-1065</v>
+        <v>-216</v>
       </c>
       <c r="AI17" t="n">
-        <v>-1051</v>
+        <v>-144</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-985</v>
+        <v>-192</v>
       </c>
       <c r="AK17" t="n">
-        <v>-1186</v>
+        <v>-123</v>
       </c>
       <c r="AL17" t="n">
-        <v>-830</v>
+        <v>-31</v>
       </c>
       <c r="AM17" t="n">
-        <v>-804</v>
+        <v>-153</v>
       </c>
       <c r="AN17" t="n">
-        <v>-812</v>
+        <v>-279</v>
       </c>
       <c r="AO17" t="n">
-        <v>-819</v>
+        <v>-372</v>
       </c>
       <c r="AP17" t="n">
-        <v>-986</v>
+        <v>-168</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-877</v>
+        <v>-7</v>
       </c>
       <c r="AR17" t="n">
-        <v>-839</v>
+        <v>-59</v>
       </c>
       <c r="AS17" t="n">
-        <v>-760</v>
+        <v>48</v>
       </c>
       <c r="AT17" t="n">
-        <v>-1037</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
-        <v>-906</v>
+        <v>-54</v>
       </c>
       <c r="AV17" t="n">
-        <v>-922</v>
+        <v>-240</v>
       </c>
       <c r="AW17" t="n">
-        <v>-961</v>
+        <v>34</v>
       </c>
       <c r="AX17" t="n">
-        <v>-870</v>
+        <v>-167</v>
       </c>
       <c r="AY17" t="n">
-        <v>-749</v>
+        <v>-102</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-1336</v>
+        <v>-562</v>
       </c>
       <c r="BA17" t="n">
-        <v>-45209</v>
+        <v>-14346</v>
       </c>
       <c r="BB17" t="n">
-        <v>-563</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
